--- a/output_from_pHEMASBT5050 /data_tables_from_pHEMASBT5050 /stats_analysis_output_replicate_pHEMASBT5050 .xlsx
+++ b/output_from_pHEMASBT5050 /data_tables_from_pHEMASBT5050 /stats_analysis_output_replicate_pHEMASBT5050 .xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="20">
   <si>
     <t>index</t>
   </si>
@@ -58,9 +58,6 @@
     <t xml:space="preserve">pHEMASBT5050 </t>
   </si>
   <si>
-    <t>3.9385 .. 3.6891</t>
-  </si>
-  <si>
     <t>3.5857 .. 3.4344</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
   </si>
   <si>
     <t>2.3650 .. 1.8528</t>
-  </si>
-  <si>
-    <t>1.8137 .. 1.4544</t>
   </si>
   <si>
     <t>1.3277 .. 0.6543</t>
@@ -437,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N169"/>
+  <dimension ref="A1:N127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -501,31 +495,31 @@
         <v>0.25</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
       <c r="H2">
-        <v>3.8138</v>
+        <v>3.51005</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.003590800132148392</v>
+        <v>0.001156346110902277</v>
       </c>
       <c r="K2">
         <v>0.9</v>
       </c>
       <c r="L2">
-        <v>0.003231720118933553</v>
+        <v>0.001040711499812049</v>
       </c>
       <c r="M2">
-        <v>1.145637817317182E-05</v>
+        <v>1.52570548308656E-05</v>
       </c>
       <c r="N2">
-        <v>0.01550432359417518</v>
+        <v>0.008334356763913279</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -533,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -545,31 +539,31 @@
         <v>0.25</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
       </c>
       <c r="H3">
-        <v>3.51005</v>
+        <v>3.36435</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.001156346110902277</v>
+        <v>0.002739820319730592</v>
       </c>
       <c r="K3">
         <v>0.9</v>
       </c>
       <c r="L3">
-        <v>0.001040711499812049</v>
+        <v>0.002465838287757533</v>
       </c>
       <c r="M3">
-        <v>1.52570548308656E-05</v>
+        <v>5.271079844747414E-06</v>
       </c>
       <c r="N3">
-        <v>0.008334356763913279</v>
+        <v>0.01141754955406436</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -577,7 +571,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -589,31 +583,31 @@
         <v>0.25</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
       </c>
       <c r="H4">
-        <v>3.36435</v>
+        <v>3.17225</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.002739820319730592</v>
+        <v>0.002701347963906273</v>
       </c>
       <c r="K4">
         <v>0.9</v>
       </c>
       <c r="L4">
-        <v>0.002465838287757533</v>
+        <v>0.002431213167515646</v>
       </c>
       <c r="M4">
-        <v>5.271079844747414E-06</v>
+        <v>2.85697763669226E-06</v>
       </c>
       <c r="N4">
-        <v>0.01141754955406436</v>
+        <v>0.01342274209585863</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -621,7 +615,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -633,31 +627,31 @@
         <v>0.25</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
       </c>
       <c r="H5">
-        <v>3.17225</v>
+        <v>2.9293</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.002701347963906273</v>
+        <v>0.004181165763971862</v>
       </c>
       <c r="K5">
         <v>0.9</v>
       </c>
       <c r="L5">
-        <v>0.002431213167515646</v>
+        <v>0.003763049187574676</v>
       </c>
       <c r="M5">
-        <v>2.85697763669226E-06</v>
+        <v>1.103666291623439E-05</v>
       </c>
       <c r="N5">
-        <v>0.01342274209585863</v>
+        <v>0.0256753944725827</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -665,7 +659,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -677,31 +671,31 @@
         <v>0.25</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
         <v>18</v>
       </c>
       <c r="H6">
-        <v>2.9293</v>
+        <v>2.1089</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.004181165763971862</v>
+        <v>0.006597333718194564</v>
       </c>
       <c r="K6">
         <v>0.9</v>
       </c>
       <c r="L6">
-        <v>0.003763049187574676</v>
+        <v>0.005937600346375108</v>
       </c>
       <c r="M6">
-        <v>1.103666291623439E-05</v>
+        <v>1.237501634723029E-06</v>
       </c>
       <c r="N6">
-        <v>0.0256753944725827</v>
+        <v>0.02688815255387729</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -709,7 +703,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -721,31 +715,31 @@
         <v>0.25</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
         <v>19</v>
       </c>
       <c r="H7">
-        <v>2.1089</v>
+        <v>0.9910000000000001</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.006597333718194564</v>
+        <v>0.006748856659881027</v>
       </c>
       <c r="K7">
         <v>0.9</v>
       </c>
       <c r="L7">
-        <v>0.005937600346375108</v>
+        <v>0.006073970993892924</v>
       </c>
       <c r="M7">
-        <v>1.237501634723029E-06</v>
+        <v>1.100725476513522E-05</v>
       </c>
       <c r="N7">
-        <v>0.02688815255387729</v>
+        <v>0.04944923635011027</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -753,7 +747,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -762,34 +756,34 @@
         <v>9</v>
       </c>
       <c r="E8">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H8">
-        <v>1.63405</v>
+        <v>3.51005</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.007041627066293646</v>
+        <v>0.0004560269908784294</v>
       </c>
       <c r="K8">
         <v>0.9</v>
       </c>
       <c r="L8">
-        <v>0.006337464359664281</v>
+        <v>0.0004104242917905864</v>
       </c>
       <c r="M8">
-        <v>0.0001389246582019652</v>
+        <v>1.52570548308656E-05</v>
       </c>
       <c r="N8">
-        <v>0.06855958881689508</v>
+        <v>0.008334356763913279</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -797,7 +791,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -806,34 +800,34 @@
         <v>9</v>
       </c>
       <c r="E9">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H9">
-        <v>0.9910000000000001</v>
+        <v>3.36435</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.006748856659881027</v>
+        <v>0.00252348097648955</v>
       </c>
       <c r="K9">
         <v>0.9</v>
       </c>
       <c r="L9">
-        <v>0.006073970993892924</v>
+        <v>0.002271132878840595</v>
       </c>
       <c r="M9">
-        <v>1.100725476513522E-05</v>
+        <v>5.271079844747414E-06</v>
       </c>
       <c r="N9">
-        <v>0.04944923635011027</v>
+        <v>0.01141754955406436</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -841,7 +835,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -853,31 +847,31 @@
         <v>0.5</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H10">
-        <v>3.8138</v>
+        <v>3.17225</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.003020759257618764</v>
+        <v>0.003153955663000081</v>
       </c>
       <c r="K10">
         <v>0.9</v>
       </c>
       <c r="L10">
-        <v>0.002718683331856887</v>
+        <v>0.002838560096700073</v>
       </c>
       <c r="M10">
-        <v>1.145637817317182E-05</v>
+        <v>2.85697763669226E-06</v>
       </c>
       <c r="N10">
-        <v>0.01550432359417518</v>
+        <v>0.01342274209585863</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -885,7 +879,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -897,31 +891,31 @@
         <v>0.5</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H11">
-        <v>3.51005</v>
+        <v>2.9293</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.0004560269908784294</v>
+        <v>0.009701579493259289</v>
       </c>
       <c r="K11">
         <v>0.9</v>
       </c>
       <c r="L11">
-        <v>0.0004104242917905864</v>
+        <v>0.008731421543933362</v>
       </c>
       <c r="M11">
-        <v>1.52570548308656E-05</v>
+        <v>1.103666291623439E-05</v>
       </c>
       <c r="N11">
-        <v>0.008334356763913279</v>
+        <v>0.0256753944725827</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -929,7 +923,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -941,31 +935,31 @@
         <v>0.5</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H12">
-        <v>3.36435</v>
+        <v>2.1089</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.00252348097648955</v>
+        <v>0.01359788189109694</v>
       </c>
       <c r="K12">
         <v>0.9</v>
       </c>
       <c r="L12">
-        <v>0.002271132878840595</v>
+        <v>0.01223809370198725</v>
       </c>
       <c r="M12">
-        <v>5.271079844747414E-06</v>
+        <v>1.237501634723029E-06</v>
       </c>
       <c r="N12">
-        <v>0.01141754955406436</v>
+        <v>0.02688815255387729</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -973,7 +967,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -985,31 +979,31 @@
         <v>0.5</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H13">
-        <v>3.17225</v>
+        <v>0.9910000000000001</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.003153955663000081</v>
+        <v>0.009520139314396856</v>
       </c>
       <c r="K13">
         <v>0.9</v>
       </c>
       <c r="L13">
-        <v>0.002838560096700073</v>
+        <v>0.008568125382957171</v>
       </c>
       <c r="M13">
-        <v>2.85697763669226E-06</v>
+        <v>1.100725476513522E-05</v>
       </c>
       <c r="N13">
-        <v>0.01342274209585863</v>
+        <v>0.04944923635011027</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1017,43 +1011,43 @@
         <v>12</v>
       </c>
       <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>0.75</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14">
-        <v>9</v>
-      </c>
-      <c r="E14">
-        <v>0.5</v>
-      </c>
-      <c r="F14">
-        <v>6</v>
-      </c>
-      <c r="G14" t="s">
-        <v>18</v>
-      </c>
       <c r="H14">
-        <v>2.9293</v>
+        <v>3.51005</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.009701579493259289</v>
+        <v>0.006706283789823351</v>
       </c>
       <c r="K14">
         <v>0.9</v>
       </c>
       <c r="L14">
-        <v>0.008731421543933362</v>
+        <v>0.006035655410841017</v>
       </c>
       <c r="M14">
-        <v>1.103666291623439E-05</v>
+        <v>1.52570548308656E-05</v>
       </c>
       <c r="N14">
-        <v>0.0256753944725827</v>
+        <v>0.008334356763913279</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1061,43 +1055,43 @@
         <v>13</v>
       </c>
       <c r="B15">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>0.75</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15">
-        <v>9</v>
-      </c>
-      <c r="E15">
-        <v>0.5</v>
-      </c>
-      <c r="F15">
-        <v>7</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
       <c r="H15">
-        <v>2.1089</v>
+        <v>3.36435</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.01359788189109694</v>
+        <v>0.006582548431977273</v>
       </c>
       <c r="K15">
         <v>0.9</v>
       </c>
       <c r="L15">
-        <v>0.01223809370198725</v>
+        <v>0.005924293588779546</v>
       </c>
       <c r="M15">
-        <v>1.237501634723029E-06</v>
+        <v>5.271079844747414E-06</v>
       </c>
       <c r="N15">
-        <v>0.02688815255387729</v>
+        <v>0.01141754955406436</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1105,43 +1099,43 @@
         <v>14</v>
       </c>
       <c r="B16">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>0.75</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16">
-        <v>9</v>
-      </c>
-      <c r="E16">
-        <v>0.5</v>
-      </c>
-      <c r="F16">
-        <v>8</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
       <c r="H16">
-        <v>1.63405</v>
+        <v>3.17225</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.01442084045430499</v>
+        <v>0.006182058136181928</v>
       </c>
       <c r="K16">
         <v>0.9</v>
       </c>
       <c r="L16">
-        <v>0.01297875640887449</v>
+        <v>0.005563852322563735</v>
       </c>
       <c r="M16">
-        <v>0.0001389246582019652</v>
+        <v>2.85697763669226E-06</v>
       </c>
       <c r="N16">
-        <v>0.06855958881689508</v>
+        <v>0.01342274209585863</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1149,43 +1143,43 @@
         <v>15</v>
       </c>
       <c r="B17">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>0.75</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17" t="s">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17">
-        <v>9</v>
-      </c>
-      <c r="E17">
-        <v>0.5</v>
-      </c>
-      <c r="F17">
-        <v>9</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
       <c r="H17">
-        <v>0.9910000000000001</v>
+        <v>2.9293</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.009520139314396856</v>
+        <v>0.008174404573316554</v>
       </c>
       <c r="K17">
         <v>0.9</v>
       </c>
       <c r="L17">
-        <v>0.008568125382957171</v>
+        <v>0.007356964115984898</v>
       </c>
       <c r="M17">
-        <v>1.100725476513522E-05</v>
+        <v>1.103666291623439E-05</v>
       </c>
       <c r="N17">
-        <v>0.04944923635011027</v>
+        <v>0.0256753944725827</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1193,7 +1187,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
@@ -1205,31 +1199,31 @@
         <v>0.75</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H18">
-        <v>3.8138</v>
+        <v>2.1089</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.008795122947962029</v>
+        <v>0.01984263770305181</v>
       </c>
       <c r="K18">
         <v>0.9</v>
       </c>
       <c r="L18">
-        <v>0.007915610653165827</v>
+        <v>0.01785837393274663</v>
       </c>
       <c r="M18">
-        <v>1.145637817317182E-05</v>
+        <v>1.237501634723029E-06</v>
       </c>
       <c r="N18">
-        <v>0.01550432359417518</v>
+        <v>0.02688815255387729</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1237,7 +1231,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
@@ -1249,31 +1243,31 @@
         <v>0.75</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H19">
-        <v>3.51005</v>
+        <v>0.9910000000000001</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.006706283789823351</v>
+        <v>0.01052865147833228</v>
       </c>
       <c r="K19">
         <v>0.9</v>
       </c>
       <c r="L19">
-        <v>0.006035655410841017</v>
+        <v>0.00947578633049905</v>
       </c>
       <c r="M19">
-        <v>1.52570548308656E-05</v>
+        <v>1.100725476513522E-05</v>
       </c>
       <c r="N19">
-        <v>0.008334356763913279</v>
+        <v>0.04944923635011027</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1281,7 +1275,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
@@ -1290,34 +1284,34 @@
         <v>9</v>
       </c>
       <c r="E20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H20">
-        <v>3.36435</v>
+        <v>3.51005</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.006582548431977273</v>
+        <v>0.006041129397773377</v>
       </c>
       <c r="K20">
         <v>0.9</v>
       </c>
       <c r="L20">
-        <v>0.005924293588779546</v>
+        <v>0.005437016457996039</v>
       </c>
       <c r="M20">
-        <v>5.271079844747414E-06</v>
+        <v>1.52570548308656E-05</v>
       </c>
       <c r="N20">
-        <v>0.01141754955406436</v>
+        <v>0.008334356763913279</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1325,7 +1319,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
@@ -1334,34 +1328,34 @@
         <v>9</v>
       </c>
       <c r="E21">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H21">
-        <v>3.17225</v>
+        <v>3.36435</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.006182058136181928</v>
+        <v>0.007419626043975096</v>
       </c>
       <c r="K21">
         <v>0.9</v>
       </c>
       <c r="L21">
-        <v>0.005563852322563735</v>
+        <v>0.006677663439577587</v>
       </c>
       <c r="M21">
-        <v>2.85697763669226E-06</v>
+        <v>5.271079844747414E-06</v>
       </c>
       <c r="N21">
-        <v>0.01342274209585863</v>
+        <v>0.01141754955406436</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1369,7 +1363,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
@@ -1378,34 +1372,34 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H22">
-        <v>2.9293</v>
+        <v>3.17225</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.008174404573316554</v>
+        <v>0.005313466575786619</v>
       </c>
       <c r="K22">
         <v>0.9</v>
       </c>
       <c r="L22">
-        <v>0.007356964115984898</v>
+        <v>0.004782119918207957</v>
       </c>
       <c r="M22">
-        <v>1.103666291623439E-05</v>
+        <v>2.85697763669226E-06</v>
       </c>
       <c r="N22">
-        <v>0.0256753944725827</v>
+        <v>0.01342274209585863</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1413,7 +1407,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
@@ -1422,34 +1416,34 @@
         <v>9</v>
       </c>
       <c r="E23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H23">
-        <v>2.1089</v>
+        <v>2.9293</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.01984263770305181</v>
+        <v>0.007303662268193856</v>
       </c>
       <c r="K23">
         <v>0.9</v>
       </c>
       <c r="L23">
-        <v>0.01785837393274663</v>
+        <v>0.00657329604137447</v>
       </c>
       <c r="M23">
-        <v>1.237501634723029E-06</v>
+        <v>1.103666291623439E-05</v>
       </c>
       <c r="N23">
-        <v>0.02688815255387729</v>
+        <v>0.0256753944725827</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1457,7 +1451,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
         <v>13</v>
@@ -1466,34 +1460,34 @@
         <v>9</v>
       </c>
       <c r="E24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H24">
-        <v>1.63405</v>
+        <v>2.1089</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.008530167949716999</v>
+        <v>0.02407194352987311</v>
       </c>
       <c r="K24">
         <v>0.9</v>
       </c>
       <c r="L24">
-        <v>0.0076771511547453</v>
+        <v>0.0216647491768858</v>
       </c>
       <c r="M24">
-        <v>0.0001389246582019652</v>
+        <v>1.237501634723029E-06</v>
       </c>
       <c r="N24">
-        <v>0.06855958881689508</v>
+        <v>0.02688815255387729</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1501,7 +1495,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
@@ -1510,13 +1504,13 @@
         <v>9</v>
       </c>
       <c r="E25">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>9</v>
       </c>
       <c r="G25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H25">
         <v>0.9910000000000001</v>
@@ -1525,13 +1519,13 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.01052865147833228</v>
+        <v>0.006961974558424727</v>
       </c>
       <c r="K25">
         <v>0.9</v>
       </c>
       <c r="L25">
-        <v>0.00947578633049905</v>
+        <v>0.006265777102582254</v>
       </c>
       <c r="M25">
         <v>1.100725476513522E-05</v>
@@ -1545,7 +1539,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
@@ -1554,34 +1548,34 @@
         <v>9</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" t="s">
         <v>14</v>
       </c>
       <c r="H26">
-        <v>3.8138</v>
+        <v>3.51005</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>0.008581636395113291</v>
+        <v>0.006347814558446896</v>
       </c>
       <c r="K26">
         <v>0.9</v>
       </c>
       <c r="L26">
-        <v>0.007723472755601962</v>
+        <v>0.005713033102602206</v>
       </c>
       <c r="M26">
-        <v>1.145637817317182E-05</v>
+        <v>1.52570548308656E-05</v>
       </c>
       <c r="N26">
-        <v>0.01550432359417518</v>
+        <v>0.008334356763913279</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1589,7 +1583,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
@@ -1598,34 +1592,34 @@
         <v>9</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G27" t="s">
         <v>15</v>
       </c>
       <c r="H27">
-        <v>3.51005</v>
+        <v>3.36435</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27">
-        <v>0.006041129397773377</v>
+        <v>0.007215525971366514</v>
       </c>
       <c r="K27">
         <v>0.9</v>
       </c>
       <c r="L27">
-        <v>0.005437016457996039</v>
+        <v>0.006493973374229862</v>
       </c>
       <c r="M27">
-        <v>1.52570548308656E-05</v>
+        <v>5.271079844747414E-06</v>
       </c>
       <c r="N27">
-        <v>0.008334356763913279</v>
+        <v>0.01141754955406436</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1633,7 +1627,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
@@ -1642,34 +1636,34 @@
         <v>9</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G28" t="s">
         <v>16</v>
       </c>
       <c r="H28">
-        <v>3.36435</v>
+        <v>3.17225</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>0.007419626043975096</v>
+        <v>0.006131683330451149</v>
       </c>
       <c r="K28">
         <v>0.9</v>
       </c>
       <c r="L28">
-        <v>0.006677663439577587</v>
+        <v>0.005518514997406034</v>
       </c>
       <c r="M28">
-        <v>5.271079844747414E-06</v>
+        <v>2.85697763669226E-06</v>
       </c>
       <c r="N28">
-        <v>0.01141754955406436</v>
+        <v>0.01342274209585863</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1677,7 +1671,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
@@ -1686,34 +1680,34 @@
         <v>9</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G29" t="s">
         <v>17</v>
       </c>
       <c r="H29">
-        <v>3.17225</v>
+        <v>2.9293</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
-        <v>0.005313466575786619</v>
+        <v>0.009072648410836718</v>
       </c>
       <c r="K29">
         <v>0.9</v>
       </c>
       <c r="L29">
-        <v>0.004782119918207957</v>
+        <v>0.008165383569753047</v>
       </c>
       <c r="M29">
-        <v>2.85697763669226E-06</v>
+        <v>1.103666291623439E-05</v>
       </c>
       <c r="N29">
-        <v>0.01342274209585863</v>
+        <v>0.0256753944725827</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1721,7 +1715,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
@@ -1730,34 +1724,34 @@
         <v>9</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="F30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G30" t="s">
         <v>18</v>
       </c>
       <c r="H30">
-        <v>2.9293</v>
+        <v>2.1089</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30">
-        <v>0.007303662268193856</v>
+        <v>0.02971350328660152</v>
       </c>
       <c r="K30">
         <v>0.9</v>
       </c>
       <c r="L30">
-        <v>0.00657329604137447</v>
+        <v>0.02674215295794137</v>
       </c>
       <c r="M30">
-        <v>1.103666291623439E-05</v>
+        <v>1.237501634723029E-06</v>
       </c>
       <c r="N30">
-        <v>0.0256753944725827</v>
+        <v>0.02688815255387729</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1765,7 +1759,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
@@ -1774,34 +1768,34 @@
         <v>9</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="F31">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G31" t="s">
         <v>19</v>
       </c>
       <c r="H31">
-        <v>2.1089</v>
+        <v>0.9910000000000001</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31">
-        <v>0.02407194352987311</v>
+        <v>0.008531667637009192</v>
       </c>
       <c r="K31">
         <v>0.9</v>
       </c>
       <c r="L31">
-        <v>0.0216647491768858</v>
+        <v>0.007678500873308272</v>
       </c>
       <c r="M31">
-        <v>1.237501634723029E-06</v>
+        <v>1.100725476513522E-05</v>
       </c>
       <c r="N31">
-        <v>0.02688815255387729</v>
+        <v>0.04944923635011027</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1809,7 +1803,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
@@ -1818,34 +1812,34 @@
         <v>9</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F32">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H32">
-        <v>1.63405</v>
+        <v>3.51005</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>0.0006149254604261705</v>
+        <v>0.005506988411078294</v>
       </c>
       <c r="K32">
         <v>0.9</v>
       </c>
       <c r="L32">
-        <v>0.0005534329143835534</v>
+        <v>0.004956289569970465</v>
       </c>
       <c r="M32">
-        <v>0.0001389246582019652</v>
+        <v>1.52570548308656E-05</v>
       </c>
       <c r="N32">
-        <v>0.06855958881689508</v>
+        <v>0.008334356763913279</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1853,7 +1847,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
         <v>13</v>
@@ -1862,34 +1856,34 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F33">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H33">
-        <v>0.9910000000000001</v>
+        <v>3.36435</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33">
-        <v>0.006961974558424727</v>
+        <v>0.007387136065432119</v>
       </c>
       <c r="K33">
         <v>0.9</v>
       </c>
       <c r="L33">
-        <v>0.006265777102582254</v>
+        <v>0.006648422458888907</v>
       </c>
       <c r="M33">
-        <v>1.100725476513522E-05</v>
+        <v>5.271079844747414E-06</v>
       </c>
       <c r="N33">
-        <v>0.04944923635011027</v>
+        <v>0.01141754955406436</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -1897,7 +1891,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
@@ -1906,34 +1900,34 @@
         <v>9</v>
       </c>
       <c r="E34">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H34">
-        <v>3.8138</v>
+        <v>3.17225</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>0.009369323390005107</v>
+        <v>0.00537881539505092</v>
       </c>
       <c r="K34">
         <v>0.9</v>
       </c>
       <c r="L34">
-        <v>0.008432391051004597</v>
+        <v>0.004840933855545828</v>
       </c>
       <c r="M34">
-        <v>1.145637817317182E-05</v>
+        <v>2.85697763669226E-06</v>
       </c>
       <c r="N34">
-        <v>0.01550432359417518</v>
+        <v>0.01342274209585863</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -1941,7 +1935,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
@@ -1950,34 +1944,34 @@
         <v>9</v>
       </c>
       <c r="E35">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H35">
-        <v>3.51005</v>
+        <v>2.9293</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35">
-        <v>0.006347814558446896</v>
+        <v>0.01160813387318244</v>
       </c>
       <c r="K35">
         <v>0.9</v>
       </c>
       <c r="L35">
-        <v>0.005713033102602206</v>
+        <v>0.01044732048586419</v>
       </c>
       <c r="M35">
-        <v>1.52570548308656E-05</v>
+        <v>1.103666291623439E-05</v>
       </c>
       <c r="N35">
-        <v>0.008334356763913279</v>
+        <v>0.0256753944725827</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -1985,7 +1979,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
@@ -1994,34 +1988,34 @@
         <v>9</v>
       </c>
       <c r="E36">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="F36">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H36">
-        <v>3.36435</v>
+        <v>2.1089</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36">
-        <v>0.007215525971366514</v>
+        <v>0.03449734590062206</v>
       </c>
       <c r="K36">
         <v>0.9</v>
       </c>
       <c r="L36">
-        <v>0.006493973374229862</v>
+        <v>0.03104761131055985</v>
       </c>
       <c r="M36">
-        <v>5.271079844747414E-06</v>
+        <v>1.237501634723029E-06</v>
       </c>
       <c r="N36">
-        <v>0.01141754955406436</v>
+        <v>0.02688815255387729</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2029,7 +2023,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
         <v>13</v>
@@ -2038,34 +2032,34 @@
         <v>9</v>
       </c>
       <c r="E37">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="F37">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H37">
-        <v>3.17225</v>
+        <v>0.9910000000000001</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37">
-        <v>0.006131683330451149</v>
+        <v>0.01143468880753887</v>
       </c>
       <c r="K37">
         <v>0.9</v>
       </c>
       <c r="L37">
-        <v>0.005518514997406034</v>
+        <v>0.01029121992678498</v>
       </c>
       <c r="M37">
-        <v>2.85697763669226E-06</v>
+        <v>1.100725476513522E-05</v>
       </c>
       <c r="N37">
-        <v>0.01342274209585863</v>
+        <v>0.04944923635011027</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2073,7 +2067,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
@@ -2082,34 +2076,34 @@
         <v>9</v>
       </c>
       <c r="E38">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="F38">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G38" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H38">
-        <v>2.9293</v>
+        <v>3.51005</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38">
-        <v>0.009072648410836718</v>
+        <v>0.00456838885261961</v>
       </c>
       <c r="K38">
         <v>0.9</v>
       </c>
       <c r="L38">
-        <v>0.008165383569753047</v>
+        <v>0.004111549967357649</v>
       </c>
       <c r="M38">
-        <v>1.103666291623439E-05</v>
+        <v>1.52570548308656E-05</v>
       </c>
       <c r="N38">
-        <v>0.0256753944725827</v>
+        <v>0.008334356763913279</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2117,7 +2111,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
@@ -2126,34 +2120,34 @@
         <v>9</v>
       </c>
       <c r="E39">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="F39">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G39" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H39">
-        <v>2.1089</v>
+        <v>3.36435</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39">
-        <v>0.02971350328660152</v>
+        <v>0.006618482190579419</v>
       </c>
       <c r="K39">
         <v>0.9</v>
       </c>
       <c r="L39">
-        <v>0.02674215295794137</v>
+        <v>0.005956633971521477</v>
       </c>
       <c r="M39">
-        <v>1.237501634723029E-06</v>
+        <v>5.271079844747414E-06</v>
       </c>
       <c r="N39">
-        <v>0.02688815255387729</v>
+        <v>0.01141754955406436</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2161,7 +2155,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
@@ -2170,34 +2164,34 @@
         <v>9</v>
       </c>
       <c r="E40">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="F40">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G40" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H40">
-        <v>1.63405</v>
+        <v>3.17225</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40">
-        <v>0.009364038745292166</v>
+        <v>0.005001263088596449</v>
       </c>
       <c r="K40">
         <v>0.9</v>
       </c>
       <c r="L40">
-        <v>0.008427634870762949</v>
+        <v>0.004501136779736805</v>
       </c>
       <c r="M40">
-        <v>0.0001389246582019652</v>
+        <v>2.85697763669226E-06</v>
       </c>
       <c r="N40">
-        <v>0.06855958881689508</v>
+        <v>0.01342274209585863</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2205,7 +2199,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
@@ -2214,34 +2208,34 @@
         <v>9</v>
       </c>
       <c r="E41">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="F41">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G41" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H41">
-        <v>0.9910000000000001</v>
+        <v>2.9293</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41">
-        <v>0.008531667637009192</v>
+        <v>0.009756528805355496</v>
       </c>
       <c r="K41">
         <v>0.9</v>
       </c>
       <c r="L41">
-        <v>0.007678500873308272</v>
+        <v>0.008780875924819947</v>
       </c>
       <c r="M41">
-        <v>1.100725476513522E-05</v>
+        <v>1.103666291623439E-05</v>
       </c>
       <c r="N41">
-        <v>0.04944923635011027</v>
+        <v>0.0256753944725827</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2249,7 +2243,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
@@ -2258,34 +2252,34 @@
         <v>9</v>
       </c>
       <c r="E42">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G42" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H42">
-        <v>3.8138</v>
+        <v>2.1089</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42">
-        <v>0.008726135255760896</v>
+        <v>0.03733603049012674</v>
       </c>
       <c r="K42">
         <v>0.9</v>
       </c>
       <c r="L42">
-        <v>0.007853521730184807</v>
+        <v>0.03360242744111407</v>
       </c>
       <c r="M42">
-        <v>1.145637817317182E-05</v>
+        <v>1.237501634723029E-06</v>
       </c>
       <c r="N42">
-        <v>0.01550432359417518</v>
+        <v>0.02688815255387729</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2293,7 +2287,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
@@ -2302,34 +2296,34 @@
         <v>9</v>
       </c>
       <c r="E43">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="F43">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G43" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H43">
-        <v>3.51005</v>
+        <v>0.9910000000000001</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43">
-        <v>0.005506988411078294</v>
+        <v>0.008510293140525902</v>
       </c>
       <c r="K43">
         <v>0.9</v>
       </c>
       <c r="L43">
-        <v>0.004956289569970465</v>
+        <v>0.007659263826473312</v>
       </c>
       <c r="M43">
-        <v>1.52570548308656E-05</v>
+        <v>1.100725476513522E-05</v>
       </c>
       <c r="N43">
-        <v>0.008334356763913279</v>
+        <v>0.04944923635011027</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2337,7 +2331,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
@@ -2346,34 +2340,34 @@
         <v>9</v>
       </c>
       <c r="E44">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="F44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H44">
-        <v>3.36435</v>
+        <v>3.51005</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44">
-        <v>0.007387136065432119</v>
+        <v>-0.0003185389387279083</v>
       </c>
       <c r="K44">
         <v>0.9</v>
       </c>
       <c r="L44">
-        <v>0.006648422458888907</v>
+        <v>-0.0002866850448551175</v>
       </c>
       <c r="M44">
-        <v>5.271079844747414E-06</v>
+        <v>1.120150559742135E-05</v>
       </c>
       <c r="N44">
-        <v>0.01141754955406436</v>
+        <v>0.004765579034685704</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2381,7 +2375,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
@@ -2390,34 +2384,34 @@
         <v>9</v>
       </c>
       <c r="E45">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="F45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H45">
-        <v>3.17225</v>
+        <v>3.36435</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45">
-        <v>0.00537881539505092</v>
+        <v>0.001210975982356114</v>
       </c>
       <c r="K45">
         <v>0.9</v>
       </c>
       <c r="L45">
-        <v>0.004840933855545828</v>
+        <v>0.001089878384120502</v>
       </c>
       <c r="M45">
-        <v>2.85697763669226E-06</v>
+        <v>5.038426094107744E-06</v>
       </c>
       <c r="N45">
-        <v>0.01342274209585863</v>
+        <v>0.00861138264738793</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2425,7 +2419,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
@@ -2434,34 +2428,34 @@
         <v>9</v>
       </c>
       <c r="E46">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="F46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G46" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H46">
-        <v>2.9293</v>
+        <v>3.17225</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46">
-        <v>0.01160813387318244</v>
+        <v>0.001579512584508023</v>
       </c>
       <c r="K46">
         <v>0.9</v>
       </c>
       <c r="L46">
-        <v>0.01044732048586419</v>
+        <v>0.001421561326057221</v>
       </c>
       <c r="M46">
-        <v>1.103666291623439E-05</v>
+        <v>1.000734546561241E-06</v>
       </c>
       <c r="N46">
-        <v>0.0256753944725827</v>
+        <v>0.006707380015591559</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2469,7 +2463,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
@@ -2478,34 +2472,34 @@
         <v>9</v>
       </c>
       <c r="E47">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="F47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G47" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H47">
-        <v>2.1089</v>
+        <v>2.9293</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47">
-        <v>0.03449734590062206</v>
+        <v>0.00511608118664224</v>
       </c>
       <c r="K47">
         <v>0.9</v>
       </c>
       <c r="L47">
-        <v>0.03104761131055985</v>
+        <v>0.004604473067978017</v>
       </c>
       <c r="M47">
-        <v>1.237501634723029E-06</v>
+        <v>2.237983581685345E-05</v>
       </c>
       <c r="N47">
-        <v>0.02688815255387729</v>
+        <v>0.02059847807895188</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2513,7 +2507,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
@@ -2522,34 +2516,34 @@
         <v>9</v>
       </c>
       <c r="E48">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="F48">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G48" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H48">
-        <v>1.63405</v>
+        <v>2.1089</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48">
-        <v>0.01740117223479983</v>
+        <v>0.005964941594718478</v>
       </c>
       <c r="K48">
         <v>0.9</v>
       </c>
       <c r="L48">
-        <v>0.01566105501131985</v>
+        <v>0.005368447435246631</v>
       </c>
       <c r="M48">
-        <v>0.0001389246582019652</v>
+        <v>1.311295576466123E-06</v>
       </c>
       <c r="N48">
-        <v>0.06855958881689508</v>
+        <v>0.02357913095979534</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2557,7 +2551,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
@@ -2566,34 +2560,34 @@
         <v>9</v>
       </c>
       <c r="E49">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="F49">
         <v>9</v>
       </c>
       <c r="G49" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H49">
         <v>0.9910000000000001</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49">
-        <v>0.01143468880753887</v>
+        <v>0.00430461437769055</v>
       </c>
       <c r="K49">
         <v>0.9</v>
       </c>
       <c r="L49">
-        <v>0.01029121992678498</v>
+        <v>0.003874152939921495</v>
       </c>
       <c r="M49">
-        <v>1.100725476513522E-05</v>
+        <v>3.210326422696296E-05</v>
       </c>
       <c r="N49">
-        <v>0.04944923635011027</v>
+        <v>0.02242561089749944</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2601,7 +2595,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C50" t="s">
         <v>13</v>
@@ -2610,34 +2604,34 @@
         <v>9</v>
       </c>
       <c r="E50">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G50" t="s">
         <v>14</v>
       </c>
       <c r="H50">
-        <v>3.8138</v>
+        <v>3.51005</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50">
-        <v>0.0073297110267424</v>
+        <v>0.001619921495650158</v>
       </c>
       <c r="K50">
         <v>0.9</v>
       </c>
       <c r="L50">
-        <v>0.00659673992406816</v>
+        <v>0.001457929346085142</v>
       </c>
       <c r="M50">
-        <v>1.145637817317182E-05</v>
+        <v>1.120150559742135E-05</v>
       </c>
       <c r="N50">
-        <v>0.01550432359417518</v>
+        <v>0.004765579034685704</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -2645,7 +2639,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C51" t="s">
         <v>13</v>
@@ -2654,34 +2648,34 @@
         <v>9</v>
       </c>
       <c r="E51">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="F51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G51" t="s">
         <v>15</v>
       </c>
       <c r="H51">
-        <v>3.51005</v>
+        <v>3.36435</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51">
-        <v>0.00456838885261961</v>
+        <v>0.002606249993696825</v>
       </c>
       <c r="K51">
         <v>0.9</v>
       </c>
       <c r="L51">
-        <v>0.004111549967357649</v>
+        <v>0.002345624994327142</v>
       </c>
       <c r="M51">
-        <v>1.52570548308656E-05</v>
+        <v>5.038426094107744E-06</v>
       </c>
       <c r="N51">
-        <v>0.008334356763913279</v>
+        <v>0.00861138264738793</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2689,7 +2683,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s">
         <v>13</v>
@@ -2698,34 +2692,34 @@
         <v>9</v>
       </c>
       <c r="E52">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="F52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G52" t="s">
         <v>16</v>
       </c>
       <c r="H52">
-        <v>3.36435</v>
+        <v>3.17225</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J52">
-        <v>0.006618482190579419</v>
+        <v>0.002310508963061494</v>
       </c>
       <c r="K52">
         <v>0.9</v>
       </c>
       <c r="L52">
-        <v>0.005956633971521477</v>
+        <v>0.002079458066755345</v>
       </c>
       <c r="M52">
-        <v>5.271079844747414E-06</v>
+        <v>1.000734546561241E-06</v>
       </c>
       <c r="N52">
-        <v>0.01141754955406436</v>
+        <v>0.006707380015591559</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -2733,7 +2727,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C53" t="s">
         <v>13</v>
@@ -2742,34 +2736,34 @@
         <v>9</v>
       </c>
       <c r="E53">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="F53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G53" t="s">
         <v>17</v>
       </c>
       <c r="H53">
-        <v>3.17225</v>
+        <v>2.9293</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J53">
-        <v>0.005001263088596449</v>
+        <v>0.005864649711407165</v>
       </c>
       <c r="K53">
         <v>0.9</v>
       </c>
       <c r="L53">
-        <v>0.004501136779736805</v>
+        <v>0.005278184740266449</v>
       </c>
       <c r="M53">
-        <v>2.85697763669226E-06</v>
+        <v>2.237983581685345E-05</v>
       </c>
       <c r="N53">
-        <v>0.01342274209585863</v>
+        <v>0.02059847807895188</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -2777,7 +2771,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
@@ -2786,34 +2780,34 @@
         <v>9</v>
       </c>
       <c r="E54">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="F54">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G54" t="s">
         <v>18</v>
       </c>
       <c r="H54">
-        <v>2.9293</v>
+        <v>2.1089</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54">
-        <v>0.009756528805355496</v>
+        <v>0.01157259111745551</v>
       </c>
       <c r="K54">
         <v>0.9</v>
       </c>
       <c r="L54">
-        <v>0.008780875924819947</v>
+        <v>0.01041533200570996</v>
       </c>
       <c r="M54">
-        <v>1.103666291623439E-05</v>
+        <v>1.311295576466123E-06</v>
       </c>
       <c r="N54">
-        <v>0.0256753944725827</v>
+        <v>0.02357913095979534</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -2821,7 +2815,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C55" t="s">
         <v>13</v>
@@ -2830,34 +2824,34 @@
         <v>9</v>
       </c>
       <c r="E55">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="F55">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G55" t="s">
         <v>19</v>
       </c>
       <c r="H55">
-        <v>2.1089</v>
+        <v>0.9910000000000001</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J55">
-        <v>0.03733603049012674</v>
+        <v>0.001818560198280708</v>
       </c>
       <c r="K55">
         <v>0.9</v>
       </c>
       <c r="L55">
-        <v>0.03360242744111407</v>
+        <v>0.001636704178452638</v>
       </c>
       <c r="M55">
-        <v>1.237501634723029E-06</v>
+        <v>3.210326422696296E-05</v>
       </c>
       <c r="N55">
-        <v>0.02688815255387729</v>
+        <v>0.02242561089749944</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -2865,7 +2859,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C56" t="s">
         <v>13</v>
@@ -2874,34 +2868,34 @@
         <v>9</v>
       </c>
       <c r="E56">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="F56">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G56" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H56">
-        <v>1.63405</v>
+        <v>3.51005</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56">
-        <v>0.008089722369942664</v>
+        <v>0.001698993541797743</v>
       </c>
       <c r="K56">
         <v>0.9</v>
       </c>
       <c r="L56">
-        <v>0.007280750132948398</v>
+        <v>0.001529094187617968</v>
       </c>
       <c r="M56">
-        <v>0.0001389246582019652</v>
+        <v>1.120150559742135E-05</v>
       </c>
       <c r="N56">
-        <v>0.06855958881689508</v>
+        <v>0.004765579034685704</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -2909,7 +2903,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
         <v>13</v>
@@ -2918,34 +2912,34 @@
         <v>9</v>
       </c>
       <c r="E57">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="F57">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G57" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H57">
-        <v>0.9910000000000001</v>
+        <v>3.36435</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J57">
-        <v>0.008510293140525902</v>
+        <v>0.003157539551685444</v>
       </c>
       <c r="K57">
         <v>0.9</v>
       </c>
       <c r="L57">
-        <v>0.007659263826473312</v>
+        <v>0.0028417855965169</v>
       </c>
       <c r="M57">
-        <v>1.100725476513522E-05</v>
+        <v>5.038426094107744E-06</v>
       </c>
       <c r="N57">
-        <v>0.04944923635011027</v>
+        <v>0.00861138264738793</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -2953,7 +2947,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C58" t="s">
         <v>13</v>
@@ -2962,34 +2956,34 @@
         <v>9</v>
       </c>
       <c r="E58">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F58">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G58" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H58">
-        <v>3.8138</v>
+        <v>3.17225</v>
       </c>
       <c r="I58">
         <v>2</v>
       </c>
       <c r="J58">
-        <v>-6.591085198018297E-05</v>
+        <v>0.002949908476359911</v>
       </c>
       <c r="K58">
         <v>0.9</v>
       </c>
       <c r="L58">
-        <v>-5.931976678216468E-05</v>
+        <v>0.00265491762872392</v>
       </c>
       <c r="M58">
-        <v>1.457963993499675E-05</v>
+        <v>1.000734546561241E-06</v>
       </c>
       <c r="N58">
-        <v>0.004507283000921018</v>
+        <v>0.006707380015591559</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -2997,7 +2991,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="C59" t="s">
         <v>13</v>
@@ -3006,34 +3000,34 @@
         <v>9</v>
       </c>
       <c r="E59">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F59">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G59" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H59">
-        <v>3.51005</v>
+        <v>2.9293</v>
       </c>
       <c r="I59">
         <v>2</v>
       </c>
       <c r="J59">
-        <v>-0.0003185389387279083</v>
+        <v>0.009381188841535848</v>
       </c>
       <c r="K59">
         <v>0.9</v>
       </c>
       <c r="L59">
-        <v>-0.0002866850448551175</v>
+        <v>0.008443069957382263</v>
       </c>
       <c r="M59">
-        <v>1.120150559742135E-05</v>
+        <v>2.237983581685345E-05</v>
       </c>
       <c r="N59">
-        <v>0.004765579034685704</v>
+        <v>0.02059847807895188</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3041,7 +3035,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C60" t="s">
         <v>13</v>
@@ -3050,34 +3044,34 @@
         <v>9</v>
       </c>
       <c r="E60">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F60">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G60" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H60">
-        <v>3.36435</v>
+        <v>2.1089</v>
       </c>
       <c r="I60">
         <v>2</v>
       </c>
       <c r="J60">
-        <v>0.001210975982356114</v>
+        <v>0.01831966429319803</v>
       </c>
       <c r="K60">
         <v>0.9</v>
       </c>
       <c r="L60">
-        <v>0.001089878384120502</v>
+        <v>0.01648769786387823</v>
       </c>
       <c r="M60">
-        <v>5.038426094107744E-06</v>
+        <v>1.311295576466123E-06</v>
       </c>
       <c r="N60">
-        <v>0.00861138264738793</v>
+        <v>0.02357913095979534</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3085,7 +3079,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C61" t="s">
         <v>13</v>
@@ -3094,34 +3088,34 @@
         <v>9</v>
       </c>
       <c r="E61">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F61">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G61" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H61">
-        <v>3.17225</v>
+        <v>0.9910000000000001</v>
       </c>
       <c r="I61">
         <v>2</v>
       </c>
       <c r="J61">
-        <v>0.001579512584508023</v>
+        <v>0.008034512809734886</v>
       </c>
       <c r="K61">
         <v>0.9</v>
       </c>
       <c r="L61">
-        <v>0.001421561326057221</v>
+        <v>0.007231061528761397</v>
       </c>
       <c r="M61">
-        <v>1.000734546561241E-06</v>
+        <v>3.210326422696296E-05</v>
       </c>
       <c r="N61">
-        <v>0.006707380015591559</v>
+        <v>0.02242561089749944</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3129,7 +3123,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="C62" t="s">
         <v>13</v>
@@ -3138,34 +3132,34 @@
         <v>9</v>
       </c>
       <c r="E62">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G62" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H62">
-        <v>2.9293</v>
+        <v>3.51005</v>
       </c>
       <c r="I62">
         <v>2</v>
       </c>
       <c r="J62">
-        <v>0.00511608118664224</v>
+        <v>0.004343800654060589</v>
       </c>
       <c r="K62">
         <v>0.9</v>
       </c>
       <c r="L62">
-        <v>0.004604473067978017</v>
+        <v>0.00390942058865453</v>
       </c>
       <c r="M62">
-        <v>2.237983581685345E-05</v>
+        <v>1.120150559742135E-05</v>
       </c>
       <c r="N62">
-        <v>0.02059847807895188</v>
+        <v>0.004765579034685704</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3173,7 +3167,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="C63" t="s">
         <v>13</v>
@@ -3182,34 +3176,34 @@
         <v>9</v>
       </c>
       <c r="E63">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G63" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H63">
-        <v>2.1089</v>
+        <v>3.36435</v>
       </c>
       <c r="I63">
         <v>2</v>
       </c>
       <c r="J63">
-        <v>0.005964941594718478</v>
+        <v>0.005418847846194116</v>
       </c>
       <c r="K63">
         <v>0.9</v>
       </c>
       <c r="L63">
-        <v>0.005368447435246631</v>
+        <v>0.004876963061574704</v>
       </c>
       <c r="M63">
-        <v>1.311295576466123E-06</v>
+        <v>5.038426094107744E-06</v>
       </c>
       <c r="N63">
-        <v>0.02357913095979534</v>
+        <v>0.00861138264738793</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3217,7 +3211,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
@@ -3226,34 +3220,34 @@
         <v>9</v>
       </c>
       <c r="E64">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G64" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H64">
-        <v>1.63405</v>
+        <v>3.17225</v>
       </c>
       <c r="I64">
         <v>2</v>
       </c>
       <c r="J64">
-        <v>0.007666116240443246</v>
+        <v>0.004565947249343175</v>
       </c>
       <c r="K64">
         <v>0.9</v>
       </c>
       <c r="L64">
-        <v>0.006899504616398921</v>
+        <v>0.004109352524408858</v>
       </c>
       <c r="M64">
-        <v>0.0002771138907547512</v>
+        <v>1.000734546561241E-06</v>
       </c>
       <c r="N64">
-        <v>0.02272080146128432</v>
+        <v>0.006707380015591559</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3261,7 +3255,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="C65" t="s">
         <v>13</v>
@@ -3270,34 +3264,34 @@
         <v>9</v>
       </c>
       <c r="E65">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G65" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H65">
-        <v>0.9910000000000001</v>
+        <v>2.9293</v>
       </c>
       <c r="I65">
         <v>2</v>
       </c>
       <c r="J65">
-        <v>0.00430461437769055</v>
+        <v>0.006911658982158342</v>
       </c>
       <c r="K65">
         <v>0.9</v>
       </c>
       <c r="L65">
-        <v>0.003874152939921495</v>
+        <v>0.006220493083942508</v>
       </c>
       <c r="M65">
-        <v>3.210326422696296E-05</v>
+        <v>2.237983581685345E-05</v>
       </c>
       <c r="N65">
-        <v>0.02242561089749944</v>
+        <v>0.02059847807895188</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3305,7 +3299,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="C66" t="s">
         <v>13</v>
@@ -3314,34 +3308,34 @@
         <v>9</v>
       </c>
       <c r="E66">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G66" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H66">
-        <v>3.8138</v>
+        <v>2.1089</v>
       </c>
       <c r="I66">
         <v>2</v>
       </c>
       <c r="J66">
-        <v>0.001008122315912739</v>
+        <v>0.02298809533019243</v>
       </c>
       <c r="K66">
         <v>0.9</v>
       </c>
       <c r="L66">
-        <v>0.0009073100843214654</v>
+        <v>0.02068928579717319</v>
       </c>
       <c r="M66">
-        <v>1.457963993499675E-05</v>
+        <v>1.311295576466123E-06</v>
       </c>
       <c r="N66">
-        <v>0.004507283000921018</v>
+        <v>0.02357913095979534</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3349,7 +3343,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="C67" t="s">
         <v>13</v>
@@ -3358,34 +3352,34 @@
         <v>9</v>
       </c>
       <c r="E67">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G67" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H67">
-        <v>3.51005</v>
+        <v>0.9910000000000001</v>
       </c>
       <c r="I67">
         <v>2</v>
       </c>
       <c r="J67">
-        <v>0.001619921495650158</v>
+        <v>0.004823765595776261</v>
       </c>
       <c r="K67">
         <v>0.9</v>
       </c>
       <c r="L67">
-        <v>0.001457929346085142</v>
+        <v>0.004341389036198635</v>
       </c>
       <c r="M67">
-        <v>1.120150559742135E-05</v>
+        <v>3.210326422696296E-05</v>
       </c>
       <c r="N67">
-        <v>0.004765579034685704</v>
+        <v>0.02242561089749944</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3393,7 +3387,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="C68" t="s">
         <v>13</v>
@@ -3402,34 +3396,34 @@
         <v>9</v>
       </c>
       <c r="E68">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="F68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G68" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H68">
-        <v>3.36435</v>
+        <v>3.51005</v>
       </c>
       <c r="I68">
         <v>2</v>
       </c>
       <c r="J68">
-        <v>0.002606249993696825</v>
+        <v>0.005656023692719399</v>
       </c>
       <c r="K68">
         <v>0.9</v>
       </c>
       <c r="L68">
-        <v>0.002345624994327142</v>
+        <v>0.005090421323447459</v>
       </c>
       <c r="M68">
-        <v>5.038426094107744E-06</v>
+        <v>1.120150559742135E-05</v>
       </c>
       <c r="N68">
-        <v>0.00861138264738793</v>
+        <v>0.004765579034685704</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3437,7 +3431,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="C69" t="s">
         <v>13</v>
@@ -3446,34 +3440,34 @@
         <v>9</v>
       </c>
       <c r="E69">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="F69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G69" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H69">
-        <v>3.17225</v>
+        <v>3.36435</v>
       </c>
       <c r="I69">
         <v>2</v>
       </c>
       <c r="J69">
-        <v>0.002310508963061494</v>
+        <v>0.005085131493277585</v>
       </c>
       <c r="K69">
         <v>0.9</v>
       </c>
       <c r="L69">
-        <v>0.002079458066755345</v>
+        <v>0.004576618343949827</v>
       </c>
       <c r="M69">
-        <v>1.000734546561241E-06</v>
+        <v>5.038426094107744E-06</v>
       </c>
       <c r="N69">
-        <v>0.006707380015591559</v>
+        <v>0.00861138264738793</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3481,7 +3475,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
@@ -3490,34 +3484,34 @@
         <v>9</v>
       </c>
       <c r="E70">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="F70">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G70" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H70">
-        <v>2.9293</v>
+        <v>3.17225</v>
       </c>
       <c r="I70">
         <v>2</v>
       </c>
       <c r="J70">
-        <v>0.005864649711407165</v>
+        <v>0.004785275096458166</v>
       </c>
       <c r="K70">
         <v>0.9</v>
       </c>
       <c r="L70">
-        <v>0.005278184740266449</v>
+        <v>0.00430674758681235</v>
       </c>
       <c r="M70">
-        <v>2.237983581685345E-05</v>
+        <v>1.000734546561241E-06</v>
       </c>
       <c r="N70">
-        <v>0.02059847807895188</v>
+        <v>0.006707380015591559</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3525,7 +3519,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="C71" t="s">
         <v>13</v>
@@ -3534,34 +3528,34 @@
         <v>9</v>
       </c>
       <c r="E71">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="F71">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G71" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H71">
-        <v>2.1089</v>
+        <v>2.9293</v>
       </c>
       <c r="I71">
         <v>2</v>
       </c>
       <c r="J71">
-        <v>0.01157259111745551</v>
+        <v>0.004850136049984913</v>
       </c>
       <c r="K71">
         <v>0.9</v>
       </c>
       <c r="L71">
-        <v>0.01041533200570996</v>
+        <v>0.004365122444986423</v>
       </c>
       <c r="M71">
-        <v>1.311295576466123E-06</v>
+        <v>2.237983581685345E-05</v>
       </c>
       <c r="N71">
-        <v>0.02357913095979534</v>
+        <v>0.02059847807895188</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3569,7 +3563,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="C72" t="s">
         <v>13</v>
@@ -3578,34 +3572,34 @@
         <v>9</v>
       </c>
       <c r="E72">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="F72">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G72" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H72">
-        <v>1.63405</v>
+        <v>2.1089</v>
       </c>
       <c r="I72">
         <v>2</v>
       </c>
       <c r="J72">
-        <v>-0.0005140740741641054</v>
+        <v>0.02758367567209735</v>
       </c>
       <c r="K72">
         <v>0.9</v>
       </c>
       <c r="L72">
-        <v>-0.0004626666667476949</v>
+        <v>0.02482530810488762</v>
       </c>
       <c r="M72">
-        <v>0.0002771138907547512</v>
+        <v>1.311295576466123E-06</v>
       </c>
       <c r="N72">
-        <v>0.02272080146128432</v>
+        <v>0.02357913095979534</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3613,7 +3607,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="C73" t="s">
         <v>13</v>
@@ -3622,13 +3616,13 @@
         <v>9</v>
       </c>
       <c r="E73">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="F73">
         <v>9</v>
       </c>
       <c r="G73" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H73">
         <v>0.9910000000000001</v>
@@ -3637,13 +3631,13 @@
         <v>2</v>
       </c>
       <c r="J73">
-        <v>0.001818560198280708</v>
+        <v>0.001634841443540521</v>
       </c>
       <c r="K73">
         <v>0.9</v>
       </c>
       <c r="L73">
-        <v>0.001636704178452638</v>
+        <v>0.001471357299186469</v>
       </c>
       <c r="M73">
         <v>3.210326422696296E-05</v>
@@ -3657,7 +3651,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="C74" t="s">
         <v>13</v>
@@ -3666,34 +3660,34 @@
         <v>9</v>
       </c>
       <c r="E74">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="F74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G74" t="s">
         <v>14</v>
       </c>
       <c r="H74">
-        <v>3.8138</v>
+        <v>3.51005</v>
       </c>
       <c r="I74">
         <v>2</v>
       </c>
       <c r="J74">
-        <v>0.001374987146860006</v>
+        <v>0.002917334693442221</v>
       </c>
       <c r="K74">
         <v>0.9</v>
       </c>
       <c r="L74">
-        <v>0.001237488432174005</v>
+        <v>0.002625601224097999</v>
       </c>
       <c r="M74">
-        <v>1.457963993499675E-05</v>
+        <v>1.120150559742135E-05</v>
       </c>
       <c r="N74">
-        <v>0.004507283000921018</v>
+        <v>0.004765579034685704</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -3701,7 +3695,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="C75" t="s">
         <v>13</v>
@@ -3710,34 +3704,34 @@
         <v>9</v>
       </c>
       <c r="E75">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="F75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G75" t="s">
         <v>15</v>
       </c>
       <c r="H75">
-        <v>3.51005</v>
+        <v>3.36435</v>
       </c>
       <c r="I75">
         <v>2</v>
       </c>
       <c r="J75">
-        <v>0.001698993541797743</v>
+        <v>0.003995144029542973</v>
       </c>
       <c r="K75">
         <v>0.9</v>
       </c>
       <c r="L75">
-        <v>0.001529094187617968</v>
+        <v>0.003595629626588676</v>
       </c>
       <c r="M75">
-        <v>1.120150559742135E-05</v>
+        <v>5.038426094107744E-06</v>
       </c>
       <c r="N75">
-        <v>0.004765579034685704</v>
+        <v>0.00861138264738793</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -3745,7 +3739,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="C76" t="s">
         <v>13</v>
@@ -3754,34 +3748,34 @@
         <v>9</v>
       </c>
       <c r="E76">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="F76">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G76" t="s">
         <v>16</v>
       </c>
       <c r="H76">
-        <v>3.36435</v>
+        <v>3.17225</v>
       </c>
       <c r="I76">
         <v>2</v>
       </c>
       <c r="J76">
-        <v>0.003157539551685444</v>
+        <v>0.004370399993765983</v>
       </c>
       <c r="K76">
         <v>0.9</v>
       </c>
       <c r="L76">
-        <v>0.0028417855965169</v>
+        <v>0.003933359994389385</v>
       </c>
       <c r="M76">
-        <v>5.038426094107744E-06</v>
+        <v>1.000734546561241E-06</v>
       </c>
       <c r="N76">
-        <v>0.00861138264738793</v>
+        <v>0.006707380015591559</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -3789,7 +3783,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="C77" t="s">
         <v>13</v>
@@ -3798,34 +3792,34 @@
         <v>9</v>
       </c>
       <c r="E77">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="F77">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G77" t="s">
         <v>17</v>
       </c>
       <c r="H77">
-        <v>3.17225</v>
+        <v>2.9293</v>
       </c>
       <c r="I77">
         <v>2</v>
       </c>
       <c r="J77">
-        <v>0.002949908476359911</v>
+        <v>0.01093402029970148</v>
       </c>
       <c r="K77">
         <v>0.9</v>
       </c>
       <c r="L77">
-        <v>0.00265491762872392</v>
+        <v>0.009840618269731332</v>
       </c>
       <c r="M77">
-        <v>1.000734546561241E-06</v>
+        <v>2.237983581685345E-05</v>
       </c>
       <c r="N77">
-        <v>0.006707380015591559</v>
+        <v>0.02059847807895188</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -3833,7 +3827,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="C78" t="s">
         <v>13</v>
@@ -3842,34 +3836,34 @@
         <v>9</v>
       </c>
       <c r="E78">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="F78">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G78" t="s">
         <v>18</v>
       </c>
       <c r="H78">
-        <v>2.9293</v>
+        <v>2.1089</v>
       </c>
       <c r="I78">
         <v>2</v>
       </c>
       <c r="J78">
-        <v>0.009381188841535848</v>
+        <v>0.03291532492935122</v>
       </c>
       <c r="K78">
         <v>0.9</v>
       </c>
       <c r="L78">
-        <v>0.008443069957382263</v>
+        <v>0.0296237924364161</v>
       </c>
       <c r="M78">
-        <v>2.237983581685345E-05</v>
+        <v>1.311295576466123E-06</v>
       </c>
       <c r="N78">
-        <v>0.02059847807895188</v>
+        <v>0.02357913095979534</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -3877,7 +3871,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="C79" t="s">
         <v>13</v>
@@ -3886,34 +3880,34 @@
         <v>9</v>
       </c>
       <c r="E79">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="F79">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G79" t="s">
         <v>19</v>
       </c>
       <c r="H79">
-        <v>2.1089</v>
+        <v>0.9910000000000001</v>
       </c>
       <c r="I79">
         <v>2</v>
       </c>
       <c r="J79">
-        <v>0.01831966429319803</v>
+        <v>0.007929337093219175</v>
       </c>
       <c r="K79">
         <v>0.9</v>
       </c>
       <c r="L79">
-        <v>0.01648769786387823</v>
+        <v>0.007136403383897258</v>
       </c>
       <c r="M79">
-        <v>1.311295576466123E-06</v>
+        <v>3.210326422696296E-05</v>
       </c>
       <c r="N79">
-        <v>0.02357913095979534</v>
+        <v>0.02242561089749944</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -3921,7 +3915,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="C80" t="s">
         <v>13</v>
@@ -3930,34 +3924,34 @@
         <v>9</v>
       </c>
       <c r="E80">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="F80">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G80" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H80">
-        <v>1.63405</v>
+        <v>3.51005</v>
       </c>
       <c r="I80">
         <v>2</v>
       </c>
       <c r="J80">
-        <v>0.01605602100109315</v>
+        <v>0.001919568004002445</v>
       </c>
       <c r="K80">
         <v>0.9</v>
       </c>
       <c r="L80">
-        <v>0.01445041890098383</v>
+        <v>0.001727611203602201</v>
       </c>
       <c r="M80">
-        <v>0.0002771138907547512</v>
+        <v>1.120150559742135E-05</v>
       </c>
       <c r="N80">
-        <v>0.02272080146128432</v>
+        <v>0.004765579034685704</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -3965,7 +3959,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="C81" t="s">
         <v>13</v>
@@ -3974,34 +3968,34 @@
         <v>9</v>
       </c>
       <c r="E81">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="F81">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G81" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H81">
-        <v>0.9910000000000001</v>
+        <v>3.36435</v>
       </c>
       <c r="I81">
         <v>2</v>
       </c>
       <c r="J81">
-        <v>0.008034512809734886</v>
+        <v>0.002794484081660252</v>
       </c>
       <c r="K81">
         <v>0.9</v>
       </c>
       <c r="L81">
-        <v>0.007231061528761397</v>
+        <v>0.002515035673494227</v>
       </c>
       <c r="M81">
-        <v>3.210326422696296E-05</v>
+        <v>5.038426094107744E-06</v>
       </c>
       <c r="N81">
-        <v>0.02242561089749944</v>
+        <v>0.00861138264738793</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4009,7 +4003,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
@@ -4018,34 +4012,34 @@
         <v>9</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="F82">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G82" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H82">
-        <v>3.8138</v>
+        <v>3.17225</v>
       </c>
       <c r="I82">
         <v>2</v>
       </c>
       <c r="J82">
-        <v>0.004373734967921845</v>
+        <v>0.004228225305158345</v>
       </c>
       <c r="K82">
         <v>0.9</v>
       </c>
       <c r="L82">
-        <v>0.003936361471129661</v>
+        <v>0.003805402774642511</v>
       </c>
       <c r="M82">
-        <v>1.457963993499675E-05</v>
+        <v>1.000734546561241E-06</v>
       </c>
       <c r="N82">
-        <v>0.004507283000921018</v>
+        <v>0.006707380015591559</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4053,7 +4047,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="C83" t="s">
         <v>13</v>
@@ -4062,34 +4056,34 @@
         <v>9</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="F83">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G83" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H83">
-        <v>3.51005</v>
+        <v>2.9293</v>
       </c>
       <c r="I83">
         <v>2</v>
       </c>
       <c r="J83">
-        <v>0.004343800654060589</v>
+        <v>0.01058014153792478</v>
       </c>
       <c r="K83">
         <v>0.9</v>
       </c>
       <c r="L83">
-        <v>0.00390942058865453</v>
+        <v>0.009522127384132301</v>
       </c>
       <c r="M83">
-        <v>1.120150559742135E-05</v>
+        <v>2.237983581685345E-05</v>
       </c>
       <c r="N83">
-        <v>0.004765579034685704</v>
+        <v>0.02059847807895188</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4097,7 +4091,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
@@ -4106,34 +4100,34 @@
         <v>9</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="F84">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G84" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H84">
-        <v>3.36435</v>
+        <v>2.1089</v>
       </c>
       <c r="I84">
         <v>2</v>
       </c>
       <c r="J84">
-        <v>0.005418847846194116</v>
+        <v>0.03594879356687775</v>
       </c>
       <c r="K84">
         <v>0.9</v>
       </c>
       <c r="L84">
-        <v>0.004876963061574704</v>
+        <v>0.03235391421018997</v>
       </c>
       <c r="M84">
-        <v>5.038426094107744E-06</v>
+        <v>1.311295576466123E-06</v>
       </c>
       <c r="N84">
-        <v>0.00861138264738793</v>
+        <v>0.02357913095979534</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4141,7 +4135,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="C85" t="s">
         <v>13</v>
@@ -4150,34 +4144,34 @@
         <v>9</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="F85">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G85" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H85">
-        <v>3.17225</v>
+        <v>0.9910000000000001</v>
       </c>
       <c r="I85">
         <v>2</v>
       </c>
       <c r="J85">
-        <v>0.004565947249343175</v>
+        <v>0.003693980742957946</v>
       </c>
       <c r="K85">
         <v>0.9</v>
       </c>
       <c r="L85">
-        <v>0.004109352524408858</v>
+        <v>0.003324582668662151</v>
       </c>
       <c r="M85">
-        <v>1.000734546561241E-06</v>
+        <v>3.210326422696296E-05</v>
       </c>
       <c r="N85">
-        <v>0.006707380015591559</v>
+        <v>0.02242561089749944</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4185,7 +4179,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="C86" t="s">
         <v>13</v>
@@ -4194,34 +4188,34 @@
         <v>9</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F86">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G86" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H86">
-        <v>2.9293</v>
+        <v>3.51005</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J86">
-        <v>0.006911658982158342</v>
+        <v>0.002075787383550674</v>
       </c>
       <c r="K86">
         <v>0.9</v>
       </c>
       <c r="L86">
-        <v>0.006220493083942508</v>
+        <v>0.001868208645195606</v>
       </c>
       <c r="M86">
-        <v>2.237983581685345E-05</v>
+        <v>3.596242624307284E-06</v>
       </c>
       <c r="N86">
-        <v>0.02059847807895188</v>
+        <v>0.003669539519361159</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4229,7 +4223,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="C87" t="s">
         <v>13</v>
@@ -4238,34 +4232,34 @@
         <v>9</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F87">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G87" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H87">
-        <v>2.1089</v>
+        <v>3.36435</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J87">
-        <v>0.02298809533019243</v>
+        <v>0.002644129150812935</v>
       </c>
       <c r="K87">
         <v>0.9</v>
       </c>
       <c r="L87">
-        <v>0.02068928579717319</v>
+        <v>0.002379716235731641</v>
       </c>
       <c r="M87">
-        <v>1.311295576466123E-06</v>
+        <v>1.552330757436661E-06</v>
       </c>
       <c r="N87">
-        <v>0.02357913095979534</v>
+        <v>0.01428981431012217</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4273,7 +4267,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="C88" t="s">
         <v>13</v>
@@ -4282,34 +4276,34 @@
         <v>9</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F88">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G88" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H88">
-        <v>1.63405</v>
+        <v>3.17225</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J88">
-        <v>0.005882456302458687</v>
+        <v>0.001288746827453037</v>
       </c>
       <c r="K88">
         <v>0.9</v>
       </c>
       <c r="L88">
-        <v>0.005294210672212818</v>
+        <v>0.001159872144707734</v>
       </c>
       <c r="M88">
-        <v>0.0002771138907547512</v>
+        <v>2.451697247681077E-06</v>
       </c>
       <c r="N88">
-        <v>0.02272080146128432</v>
+        <v>0.009294534648338321</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4317,7 +4311,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="C89" t="s">
         <v>13</v>
@@ -4326,34 +4320,34 @@
         <v>9</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F89">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G89" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H89">
-        <v>0.9910000000000001</v>
+        <v>2.9293</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J89">
-        <v>0.004823765595776261</v>
+        <v>0.002349373469131492</v>
       </c>
       <c r="K89">
         <v>0.9</v>
       </c>
       <c r="L89">
-        <v>0.004341389036198635</v>
+        <v>0.002114436122218343</v>
       </c>
       <c r="M89">
-        <v>3.210326422696296E-05</v>
+        <v>1.671265343297028E-05</v>
       </c>
       <c r="N89">
-        <v>0.02242561089749944</v>
+        <v>0.02567214532186431</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4361,7 +4355,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="C90" t="s">
         <v>13</v>
@@ -4370,34 +4364,34 @@
         <v>9</v>
       </c>
       <c r="E90">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="F90">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G90" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H90">
-        <v>3.8138</v>
+        <v>2.1089</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J90">
-        <v>0.005614860328945809</v>
+        <v>0.005740278622301135</v>
       </c>
       <c r="K90">
         <v>0.9</v>
       </c>
       <c r="L90">
-        <v>0.005053374296051228</v>
+        <v>0.005166250760071022</v>
       </c>
       <c r="M90">
-        <v>1.457963993499675E-05</v>
+        <v>2.095997395467639E-06</v>
       </c>
       <c r="N90">
-        <v>0.004507283000921018</v>
+        <v>0.02470306117675993</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4405,7 +4399,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="C91" t="s">
         <v>13</v>
@@ -4414,34 +4408,34 @@
         <v>9</v>
       </c>
       <c r="E91">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="F91">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G91" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H91">
-        <v>3.51005</v>
+        <v>0.9910000000000001</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J91">
-        <v>0.005656023692719399</v>
+        <v>0.004718329630196624</v>
       </c>
       <c r="K91">
         <v>0.9</v>
       </c>
       <c r="L91">
-        <v>0.005090421323447459</v>
+        <v>0.004246496667176962</v>
       </c>
       <c r="M91">
-        <v>1.120150559742135E-05</v>
+        <v>1.487553133501057E-05</v>
       </c>
       <c r="N91">
-        <v>0.004765579034685704</v>
+        <v>0.04556840259152337</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4449,7 +4443,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="C92" t="s">
         <v>13</v>
@@ -4458,34 +4452,34 @@
         <v>9</v>
       </c>
       <c r="E92">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="F92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G92" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H92">
-        <v>3.36435</v>
+        <v>3.51005</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J92">
-        <v>0.005085131493277585</v>
+        <v>0.001265264247950404</v>
       </c>
       <c r="K92">
         <v>0.9</v>
       </c>
       <c r="L92">
-        <v>0.004576618343949827</v>
+        <v>0.001138737823155363</v>
       </c>
       <c r="M92">
-        <v>5.038426094107744E-06</v>
+        <v>3.596242624307284E-06</v>
       </c>
       <c r="N92">
-        <v>0.00861138264738793</v>
+        <v>0.003669539519361159</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -4493,7 +4487,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="C93" t="s">
         <v>13</v>
@@ -4502,34 +4496,34 @@
         <v>9</v>
       </c>
       <c r="E93">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="F93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G93" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H93">
-        <v>3.17225</v>
+        <v>3.36435</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J93">
-        <v>0.004785275096458166</v>
+        <v>0.003492854124946269</v>
       </c>
       <c r="K93">
         <v>0.9</v>
       </c>
       <c r="L93">
-        <v>0.00430674758681235</v>
+        <v>0.003143568712451642</v>
       </c>
       <c r="M93">
-        <v>1.000734546561241E-06</v>
+        <v>1.552330757436661E-06</v>
       </c>
       <c r="N93">
-        <v>0.006707380015591559</v>
+        <v>0.01428981431012217</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4537,7 +4531,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="C94" t="s">
         <v>13</v>
@@ -4546,34 +4540,34 @@
         <v>9</v>
       </c>
       <c r="E94">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="F94">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G94" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H94">
-        <v>2.9293</v>
+        <v>3.17225</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J94">
-        <v>0.004850136049984913</v>
+        <v>0.004152158497664925</v>
       </c>
       <c r="K94">
         <v>0.9</v>
       </c>
       <c r="L94">
-        <v>0.004365122444986423</v>
+        <v>0.003736942647898433</v>
       </c>
       <c r="M94">
-        <v>2.237983581685345E-05</v>
+        <v>2.451697247681077E-06</v>
       </c>
       <c r="N94">
-        <v>0.02059847807895188</v>
+        <v>0.009294534648338321</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -4581,7 +4575,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="C95" t="s">
         <v>13</v>
@@ -4590,34 +4584,34 @@
         <v>9</v>
       </c>
       <c r="E95">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="F95">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G95" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H95">
-        <v>2.1089</v>
+        <v>2.9293</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J95">
-        <v>0.02758367567209735</v>
+        <v>0.01079915782450852</v>
       </c>
       <c r="K95">
         <v>0.9</v>
       </c>
       <c r="L95">
-        <v>0.02482530810488762</v>
+        <v>0.009719242042057669</v>
       </c>
       <c r="M95">
-        <v>1.311295576466123E-06</v>
+        <v>1.671265343297028E-05</v>
       </c>
       <c r="N95">
-        <v>0.02357913095979534</v>
+        <v>0.02567214532186431</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -4625,7 +4619,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="C96" t="s">
         <v>13</v>
@@ -4634,34 +4628,34 @@
         <v>9</v>
       </c>
       <c r="E96">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="F96">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G96" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H96">
-        <v>1.63405</v>
+        <v>2.1089</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J96">
-        <v>-0.003768380142830856</v>
+        <v>0.01384319551409969</v>
       </c>
       <c r="K96">
         <v>0.9</v>
       </c>
       <c r="L96">
-        <v>-0.00339154212854777</v>
+        <v>0.01245887596268972</v>
       </c>
       <c r="M96">
-        <v>0.0002771138907547512</v>
+        <v>2.095997395467639E-06</v>
       </c>
       <c r="N96">
-        <v>0.02272080146128432</v>
+        <v>0.02470306117675993</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -4669,7 +4663,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="C97" t="s">
         <v>13</v>
@@ -4678,34 +4672,34 @@
         <v>9</v>
       </c>
       <c r="E97">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="F97">
         <v>9</v>
       </c>
       <c r="G97" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H97">
         <v>0.9910000000000001</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J97">
-        <v>0.001634841443540521</v>
+        <v>0.009617738718466801</v>
       </c>
       <c r="K97">
         <v>0.9</v>
       </c>
       <c r="L97">
-        <v>0.001471357299186469</v>
+        <v>0.008655964846620122</v>
       </c>
       <c r="M97">
-        <v>3.210326422696296E-05</v>
+        <v>1.487553133501057E-05</v>
       </c>
       <c r="N97">
-        <v>0.02242561089749944</v>
+        <v>0.04556840259152337</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -4713,7 +4707,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="C98" t="s">
         <v>13</v>
@@ -4722,34 +4716,34 @@
         <v>9</v>
       </c>
       <c r="E98">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="F98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G98" t="s">
         <v>14</v>
       </c>
       <c r="H98">
-        <v>3.8138</v>
+        <v>3.51005</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J98">
-        <v>0.002678039165877432</v>
+        <v>0.001606521595267999</v>
       </c>
       <c r="K98">
         <v>0.9</v>
       </c>
       <c r="L98">
-        <v>0.002410235249289689</v>
+        <v>0.001445869435741199</v>
       </c>
       <c r="M98">
-        <v>1.457963993499675E-05</v>
+        <v>3.596242624307284E-06</v>
       </c>
       <c r="N98">
-        <v>0.004507283000921018</v>
+        <v>0.003669539519361159</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -4757,7 +4751,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="C99" t="s">
         <v>13</v>
@@ -4766,34 +4760,34 @@
         <v>9</v>
       </c>
       <c r="E99">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="F99">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G99" t="s">
         <v>15</v>
       </c>
       <c r="H99">
-        <v>3.51005</v>
+        <v>3.36435</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J99">
-        <v>0.002917334693442221</v>
+        <v>0.003584750283159231</v>
       </c>
       <c r="K99">
         <v>0.9</v>
       </c>
       <c r="L99">
-        <v>0.002625601224097999</v>
+        <v>0.003226275254843308</v>
       </c>
       <c r="M99">
-        <v>1.120150559742135E-05</v>
+        <v>1.552330757436661E-06</v>
       </c>
       <c r="N99">
-        <v>0.004765579034685704</v>
+        <v>0.01428981431012217</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -4801,7 +4795,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="C100" t="s">
         <v>13</v>
@@ -4810,34 +4804,34 @@
         <v>9</v>
       </c>
       <c r="E100">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="F100">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G100" t="s">
         <v>16</v>
       </c>
       <c r="H100">
-        <v>3.36435</v>
+        <v>3.17225</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J100">
-        <v>0.003995144029542973</v>
+        <v>0.002773894528417093</v>
       </c>
       <c r="K100">
         <v>0.9</v>
       </c>
       <c r="L100">
-        <v>0.003595629626588676</v>
+        <v>0.002496505075575384</v>
       </c>
       <c r="M100">
-        <v>5.038426094107744E-06</v>
+        <v>2.451697247681077E-06</v>
       </c>
       <c r="N100">
-        <v>0.00861138264738793</v>
+        <v>0.009294534648338321</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -4845,7 +4839,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="C101" t="s">
         <v>13</v>
@@ -4854,34 +4848,34 @@
         <v>9</v>
       </c>
       <c r="E101">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="F101">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G101" t="s">
         <v>17</v>
       </c>
       <c r="H101">
-        <v>3.17225</v>
+        <v>2.9293</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J101">
-        <v>0.004370399993765983</v>
+        <v>0.008960291896637312</v>
       </c>
       <c r="K101">
         <v>0.9</v>
       </c>
       <c r="L101">
-        <v>0.003933359994389385</v>
+        <v>0.008064262706973581</v>
       </c>
       <c r="M101">
-        <v>1.000734546561241E-06</v>
+        <v>1.671265343297028E-05</v>
       </c>
       <c r="N101">
-        <v>0.006707380015591559</v>
+        <v>0.02567214532186431</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -4889,7 +4883,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="C102" t="s">
         <v>13</v>
@@ -4898,34 +4892,34 @@
         <v>9</v>
       </c>
       <c r="E102">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="F102">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G102" t="s">
         <v>18</v>
       </c>
       <c r="H102">
-        <v>2.9293</v>
+        <v>2.1089</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J102">
-        <v>0.01093402029970148</v>
+        <v>0.01772331464231137</v>
       </c>
       <c r="K102">
         <v>0.9</v>
       </c>
       <c r="L102">
-        <v>0.009840618269731332</v>
+        <v>0.01595098317808023</v>
       </c>
       <c r="M102">
-        <v>2.237983581685345E-05</v>
+        <v>2.095997395467639E-06</v>
       </c>
       <c r="N102">
-        <v>0.02059847807895188</v>
+        <v>0.02470306117675993</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -4933,7 +4927,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="C103" t="s">
         <v>13</v>
@@ -4942,34 +4936,34 @@
         <v>9</v>
       </c>
       <c r="E103">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="F103">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G103" t="s">
         <v>19</v>
       </c>
       <c r="H103">
-        <v>2.1089</v>
+        <v>0.9910000000000001</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J103">
-        <v>0.03291532492935122</v>
+        <v>0.007716928592132048</v>
       </c>
       <c r="K103">
         <v>0.9</v>
       </c>
       <c r="L103">
-        <v>0.0296237924364161</v>
+        <v>0.006945235732918843</v>
       </c>
       <c r="M103">
-        <v>1.311295576466123E-06</v>
+        <v>1.487553133501057E-05</v>
       </c>
       <c r="N103">
-        <v>0.02357913095979534</v>
+        <v>0.04556840259152337</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -4977,7 +4971,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="C104" t="s">
         <v>13</v>
@@ -4986,34 +4980,34 @@
         <v>9</v>
       </c>
       <c r="E104">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F104">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G104" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H104">
-        <v>1.63405</v>
+        <v>3.51005</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J104">
-        <v>0.01603575537629166</v>
+        <v>0.00354864252258197</v>
       </c>
       <c r="K104">
         <v>0.9</v>
       </c>
       <c r="L104">
-        <v>0.0144321798386625</v>
+        <v>0.003193778270323773</v>
       </c>
       <c r="M104">
-        <v>0.0002771138907547512</v>
+        <v>3.596242624307284E-06</v>
       </c>
       <c r="N104">
-        <v>0.02272080146128432</v>
+        <v>0.003669539519361159</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -5021,7 +5015,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="C105" t="s">
         <v>13</v>
@@ -5030,34 +5024,34 @@
         <v>9</v>
       </c>
       <c r="E105">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F105">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G105" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H105">
-        <v>0.9910000000000001</v>
+        <v>3.36435</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J105">
-        <v>0.007929337093219175</v>
+        <v>0.004860876842006895</v>
       </c>
       <c r="K105">
         <v>0.9</v>
       </c>
       <c r="L105">
-        <v>0.007136403383897258</v>
+        <v>0.004374789157806205</v>
       </c>
       <c r="M105">
-        <v>3.210326422696296E-05</v>
+        <v>1.552330757436661E-06</v>
       </c>
       <c r="N105">
-        <v>0.02242561089749944</v>
+        <v>0.01428981431012217</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5065,7 +5059,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="C106" t="s">
         <v>13</v>
@@ -5074,34 +5068,34 @@
         <v>9</v>
       </c>
       <c r="E106">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G106" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H106">
-        <v>3.8138</v>
+        <v>3.17225</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J106">
-        <v>0.0009996549257157478</v>
+        <v>0.003742492022102444</v>
       </c>
       <c r="K106">
         <v>0.9</v>
       </c>
       <c r="L106">
-        <v>0.000899689433144173</v>
+        <v>0.0033682428198922</v>
       </c>
       <c r="M106">
-        <v>1.457963993499675E-05</v>
+        <v>2.451697247681077E-06</v>
       </c>
       <c r="N106">
-        <v>0.004507283000921018</v>
+        <v>0.009294534648338321</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -5109,7 +5103,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="C107" t="s">
         <v>13</v>
@@ -5118,34 +5112,34 @@
         <v>9</v>
       </c>
       <c r="E107">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="F107">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G107" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H107">
-        <v>3.51005</v>
+        <v>2.9293</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J107">
-        <v>0.001919568004002445</v>
+        <v>0.008562539906460371</v>
       </c>
       <c r="K107">
         <v>0.9</v>
       </c>
       <c r="L107">
-        <v>0.001727611203602201</v>
+        <v>0.007706285915814334</v>
       </c>
       <c r="M107">
-        <v>1.120150559742135E-05</v>
+        <v>1.671265343297028E-05</v>
       </c>
       <c r="N107">
-        <v>0.004765579034685704</v>
+        <v>0.02567214532186431</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -5153,7 +5147,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="C108" t="s">
         <v>13</v>
@@ -5162,34 +5156,34 @@
         <v>9</v>
       </c>
       <c r="E108">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G108" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H108">
-        <v>3.36435</v>
+        <v>2.1089</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J108">
-        <v>0.002794484081660252</v>
+        <v>0.02279175434045067</v>
       </c>
       <c r="K108">
         <v>0.9</v>
       </c>
       <c r="L108">
-        <v>0.002515035673494227</v>
+        <v>0.0205125789064056</v>
       </c>
       <c r="M108">
-        <v>5.038426094107744E-06</v>
+        <v>2.095997395467639E-06</v>
       </c>
       <c r="N108">
-        <v>0.00861138264738793</v>
+        <v>0.02470306117675993</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -5197,7 +5191,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="C109" t="s">
         <v>13</v>
@@ -5206,34 +5200,34 @@
         <v>9</v>
       </c>
       <c r="E109">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="F109">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G109" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H109">
-        <v>3.17225</v>
+        <v>0.9910000000000001</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J109">
-        <v>0.004228225305158345</v>
+        <v>0.006068885203650655</v>
       </c>
       <c r="K109">
         <v>0.9</v>
       </c>
       <c r="L109">
-        <v>0.003805402774642511</v>
+        <v>0.00546199668328559</v>
       </c>
       <c r="M109">
-        <v>1.000734546561241E-06</v>
+        <v>1.487553133501057E-05</v>
       </c>
       <c r="N109">
-        <v>0.006707380015591559</v>
+        <v>0.04556840259152337</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -5241,7 +5235,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="C110" t="s">
         <v>13</v>
@@ -5250,34 +5244,34 @@
         <v>9</v>
       </c>
       <c r="E110">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="F110">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G110" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H110">
-        <v>2.9293</v>
+        <v>3.51005</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J110">
-        <v>0.01058014153792478</v>
+        <v>0.001872753063788252</v>
       </c>
       <c r="K110">
         <v>0.9</v>
       </c>
       <c r="L110">
-        <v>0.009522127384132301</v>
+        <v>0.001685477757409427</v>
       </c>
       <c r="M110">
-        <v>2.237983581685345E-05</v>
+        <v>3.596242624307284E-06</v>
       </c>
       <c r="N110">
-        <v>0.02059847807895188</v>
+        <v>0.003669539519361159</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -5285,7 +5279,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="C111" t="s">
         <v>13</v>
@@ -5294,34 +5288,34 @@
         <v>9</v>
       </c>
       <c r="E111">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="F111">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G111" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H111">
-        <v>2.1089</v>
+        <v>3.36435</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J111">
-        <v>0.03594879356687775</v>
+        <v>0.003447784022408986</v>
       </c>
       <c r="K111">
         <v>0.9</v>
       </c>
       <c r="L111">
-        <v>0.03235391421018997</v>
+        <v>0.003103005620168087</v>
       </c>
       <c r="M111">
-        <v>1.311295576466123E-06</v>
+        <v>1.552330757436661E-06</v>
       </c>
       <c r="N111">
-        <v>0.02357913095979534</v>
+        <v>0.01428981431012217</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -5329,7 +5323,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="C112" t="s">
         <v>13</v>
@@ -5338,34 +5332,34 @@
         <v>9</v>
       </c>
       <c r="E112">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="F112">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G112" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H112">
-        <v>1.63405</v>
+        <v>3.17225</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J112">
-        <v>0.009705633181614944</v>
+        <v>0.00330880078650322</v>
       </c>
       <c r="K112">
         <v>0.9</v>
       </c>
       <c r="L112">
-        <v>0.008735069863453449</v>
+        <v>0.002977920707852898</v>
       </c>
       <c r="M112">
-        <v>0.0002771138907547512</v>
+        <v>2.451697247681077E-06</v>
       </c>
       <c r="N112">
-        <v>0.02272080146128432</v>
+        <v>0.009294534648338321</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -5373,7 +5367,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="C113" t="s">
         <v>13</v>
@@ -5382,34 +5376,34 @@
         <v>9</v>
       </c>
       <c r="E113">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="F113">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G113" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H113">
-        <v>0.9910000000000001</v>
+        <v>2.9293</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J113">
-        <v>0.003693980742957946</v>
+        <v>0.008415868950971109</v>
       </c>
       <c r="K113">
         <v>0.9</v>
       </c>
       <c r="L113">
-        <v>0.003324582668662151</v>
+        <v>0.007574282055873998</v>
       </c>
       <c r="M113">
-        <v>3.210326422696296E-05</v>
+        <v>1.671265343297028E-05</v>
       </c>
       <c r="N113">
-        <v>0.02242561089749944</v>
+        <v>0.02567214532186431</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -5417,7 +5411,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="C114" t="s">
         <v>13</v>
@@ -5426,34 +5420,34 @@
         <v>9</v>
       </c>
       <c r="E114">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="F114">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G114" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H114">
-        <v>3.8138</v>
+        <v>2.1089</v>
       </c>
       <c r="I114">
         <v>3</v>
       </c>
       <c r="J114">
-        <v>0.002499815337603921</v>
+        <v>0.02761748872636778</v>
       </c>
       <c r="K114">
         <v>0.9</v>
       </c>
       <c r="L114">
-        <v>0.002249833803843529</v>
+        <v>0.024855739853731</v>
       </c>
       <c r="M114">
-        <v>2.711404135622713E-06</v>
+        <v>2.095997395467639E-06</v>
       </c>
       <c r="N114">
-        <v>0.01171386266873453</v>
+        <v>0.02470306117675993</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -5461,7 +5455,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="C115" t="s">
         <v>13</v>
@@ -5470,34 +5464,34 @@
         <v>9</v>
       </c>
       <c r="E115">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="F115">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G115" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H115">
-        <v>3.51005</v>
+        <v>0.9910000000000001</v>
       </c>
       <c r="I115">
         <v>3</v>
       </c>
       <c r="J115">
-        <v>0.002075787383550674</v>
+        <v>0.004658763443214258</v>
       </c>
       <c r="K115">
         <v>0.9</v>
       </c>
       <c r="L115">
-        <v>0.001868208645195606</v>
+        <v>0.004192887098892832</v>
       </c>
       <c r="M115">
-        <v>3.596242624307284E-06</v>
+        <v>1.487553133501057E-05</v>
       </c>
       <c r="N115">
-        <v>0.003669539519361159</v>
+        <v>0.04556840259152337</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -5505,7 +5499,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="C116" t="s">
         <v>13</v>
@@ -5514,34 +5508,34 @@
         <v>9</v>
       </c>
       <c r="E116">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="F116">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G116" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H116">
-        <v>3.36435</v>
+        <v>3.51005</v>
       </c>
       <c r="I116">
         <v>3</v>
       </c>
       <c r="J116">
-        <v>0.002644129150812935</v>
+        <v>0.002861778211912433</v>
       </c>
       <c r="K116">
         <v>0.9</v>
       </c>
       <c r="L116">
-        <v>0.002379716235731641</v>
+        <v>0.00257560039072119</v>
       </c>
       <c r="M116">
-        <v>1.552330757436661E-06</v>
+        <v>3.596242624307284E-06</v>
       </c>
       <c r="N116">
-        <v>0.01428981431012217</v>
+        <v>0.003669539519361159</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -5549,7 +5543,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="C117" t="s">
         <v>13</v>
@@ -5558,34 +5552,34 @@
         <v>9</v>
       </c>
       <c r="E117">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="F117">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G117" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H117">
-        <v>3.17225</v>
+        <v>3.36435</v>
       </c>
       <c r="I117">
         <v>3</v>
       </c>
       <c r="J117">
-        <v>0.001288746827453037</v>
+        <v>0.003650785814988594</v>
       </c>
       <c r="K117">
         <v>0.9</v>
       </c>
       <c r="L117">
-        <v>0.001159872144707734</v>
+        <v>0.003285707233489734</v>
       </c>
       <c r="M117">
-        <v>2.451697247681077E-06</v>
+        <v>1.552330757436661E-06</v>
       </c>
       <c r="N117">
-        <v>0.009294534648338321</v>
+        <v>0.01428981431012217</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -5593,7 +5587,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="C118" t="s">
         <v>13</v>
@@ -5602,34 +5596,34 @@
         <v>9</v>
       </c>
       <c r="E118">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="F118">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G118" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H118">
-        <v>2.9293</v>
+        <v>3.17225</v>
       </c>
       <c r="I118">
         <v>3</v>
       </c>
       <c r="J118">
-        <v>0.002349373469131492</v>
+        <v>0.003834165127188757</v>
       </c>
       <c r="K118">
         <v>0.9</v>
       </c>
       <c r="L118">
-        <v>0.002114436122218343</v>
+        <v>0.003450748614469882</v>
       </c>
       <c r="M118">
-        <v>1.671265343297028E-05</v>
+        <v>2.451697247681077E-06</v>
       </c>
       <c r="N118">
-        <v>0.02567214532186431</v>
+        <v>0.009294534648338321</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -5637,7 +5631,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="C119" t="s">
         <v>13</v>
@@ -5646,34 +5640,34 @@
         <v>9</v>
       </c>
       <c r="E119">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="F119">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G119" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H119">
-        <v>2.1089</v>
+        <v>2.9293</v>
       </c>
       <c r="I119">
         <v>3</v>
       </c>
       <c r="J119">
-        <v>0.005740278622301135</v>
+        <v>0.01048042413842902</v>
       </c>
       <c r="K119">
         <v>0.9</v>
       </c>
       <c r="L119">
-        <v>0.005166250760071022</v>
+        <v>0.009432381724586113</v>
       </c>
       <c r="M119">
-        <v>2.095997395467639E-06</v>
+        <v>1.671265343297028E-05</v>
       </c>
       <c r="N119">
-        <v>0.02470306117675993</v>
+        <v>0.02567214532186431</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -5681,7 +5675,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="C120" t="s">
         <v>13</v>
@@ -5690,34 +5684,34 @@
         <v>9</v>
       </c>
       <c r="E120">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="F120">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G120" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H120">
-        <v>1.63405</v>
+        <v>2.1089</v>
       </c>
       <c r="I120">
         <v>3</v>
       </c>
       <c r="J120">
-        <v>0.005111253996051837</v>
+        <v>0.03162185081205404</v>
       </c>
       <c r="K120">
         <v>0.9</v>
       </c>
       <c r="L120">
-        <v>0.004600128596446654</v>
+        <v>0.02845966573084864</v>
       </c>
       <c r="M120">
-        <v>7.461842911717385E-05</v>
+        <v>2.095997395467639E-06</v>
       </c>
       <c r="N120">
-        <v>0.05446609026091052</v>
+        <v>0.02470306117675993</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -5725,7 +5719,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="C121" t="s">
         <v>13</v>
@@ -5734,13 +5728,13 @@
         <v>9</v>
       </c>
       <c r="E121">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="F121">
         <v>9</v>
       </c>
       <c r="G121" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H121">
         <v>0.9910000000000001</v>
@@ -5749,13 +5743,13 @@
         <v>3</v>
       </c>
       <c r="J121">
-        <v>0.004718329630196624</v>
+        <v>0.007587125948213423</v>
       </c>
       <c r="K121">
         <v>0.9</v>
       </c>
       <c r="L121">
-        <v>0.004246496667176962</v>
+        <v>0.006828413353392081</v>
       </c>
       <c r="M121">
         <v>1.487553133501057E-05</v>
@@ -5769,7 +5763,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="C122" t="s">
         <v>13</v>
@@ -5778,34 +5772,34 @@
         <v>9</v>
       </c>
       <c r="E122">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="F122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G122" t="s">
         <v>14</v>
       </c>
       <c r="H122">
-        <v>3.8138</v>
+        <v>3.51005</v>
       </c>
       <c r="I122">
         <v>3</v>
       </c>
       <c r="J122">
-        <v>0.003758052366084508</v>
+        <v>0.00410484532221776</v>
       </c>
       <c r="K122">
         <v>0.9</v>
       </c>
       <c r="L122">
-        <v>0.003382247129476058</v>
+        <v>0.003694360789995985</v>
       </c>
       <c r="M122">
-        <v>2.711404135622713E-06</v>
+        <v>3.596242624307284E-06</v>
       </c>
       <c r="N122">
-        <v>0.01171386266873453</v>
+        <v>0.003669539519361159</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -5813,7 +5807,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="C123" t="s">
         <v>13</v>
@@ -5822,34 +5816,34 @@
         <v>9</v>
       </c>
       <c r="E123">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="F123">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G123" t="s">
         <v>15</v>
       </c>
       <c r="H123">
-        <v>3.51005</v>
+        <v>3.36435</v>
       </c>
       <c r="I123">
         <v>3</v>
       </c>
       <c r="J123">
-        <v>0.001265264247950404</v>
+        <v>0.004833560909133633</v>
       </c>
       <c r="K123">
         <v>0.9</v>
       </c>
       <c r="L123">
-        <v>0.001138737823155363</v>
+        <v>0.004350204818220269</v>
       </c>
       <c r="M123">
-        <v>3.596242624307284E-06</v>
+        <v>1.552330757436661E-06</v>
       </c>
       <c r="N123">
-        <v>0.003669539519361159</v>
+        <v>0.01428981431012217</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -5857,7 +5851,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="C124" t="s">
         <v>13</v>
@@ -5866,34 +5860,34 @@
         <v>9</v>
       </c>
       <c r="E124">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="F124">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G124" t="s">
         <v>16</v>
       </c>
       <c r="H124">
-        <v>3.36435</v>
+        <v>3.17225</v>
       </c>
       <c r="I124">
         <v>3</v>
       </c>
       <c r="J124">
-        <v>0.003492854124946269</v>
+        <v>0.004565336142558453</v>
       </c>
       <c r="K124">
         <v>0.9</v>
       </c>
       <c r="L124">
-        <v>0.003143568712451642</v>
+        <v>0.004108802528302608</v>
       </c>
       <c r="M124">
-        <v>1.552330757436661E-06</v>
+        <v>2.451697247681077E-06</v>
       </c>
       <c r="N124">
-        <v>0.01428981431012217</v>
+        <v>0.009294534648338321</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -5901,7 +5895,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="C125" t="s">
         <v>13</v>
@@ -5910,34 +5904,34 @@
         <v>9</v>
       </c>
       <c r="E125">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="F125">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G125" t="s">
         <v>17</v>
       </c>
       <c r="H125">
-        <v>3.17225</v>
+        <v>2.9293</v>
       </c>
       <c r="I125">
         <v>3</v>
       </c>
       <c r="J125">
-        <v>0.004152158497664925</v>
+        <v>0.009731128560144332</v>
       </c>
       <c r="K125">
         <v>0.9</v>
       </c>
       <c r="L125">
-        <v>0.003736942647898433</v>
+        <v>0.008758015704129899</v>
       </c>
       <c r="M125">
-        <v>2.451697247681077E-06</v>
+        <v>1.671265343297028E-05</v>
       </c>
       <c r="N125">
-        <v>0.009294534648338321</v>
+        <v>0.02567214532186431</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -5945,7 +5939,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="C126" t="s">
         <v>13</v>
@@ -5954,34 +5948,34 @@
         <v>9</v>
       </c>
       <c r="E126">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="F126">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G126" t="s">
         <v>18</v>
       </c>
       <c r="H126">
-        <v>2.9293</v>
+        <v>2.1089</v>
       </c>
       <c r="I126">
         <v>3</v>
       </c>
       <c r="J126">
-        <v>0.01079915782450852</v>
+        <v>0.03588350893557521</v>
       </c>
       <c r="K126">
         <v>0.9</v>
       </c>
       <c r="L126">
-        <v>0.009719242042057669</v>
+        <v>0.03229515804201769</v>
       </c>
       <c r="M126">
-        <v>1.671265343297028E-05</v>
+        <v>2.095997395467639E-06</v>
       </c>
       <c r="N126">
-        <v>0.02567214532186431</v>
+        <v>0.02470306117675993</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -5989,7 +5983,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="C127" t="s">
         <v>13</v>
@@ -5998,1881 +5992,33 @@
         <v>9</v>
       </c>
       <c r="E127">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="F127">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G127" t="s">
         <v>19</v>
       </c>
       <c r="H127">
-        <v>2.1089</v>
+        <v>0.9910000000000001</v>
       </c>
       <c r="I127">
         <v>3</v>
       </c>
       <c r="J127">
-        <v>0.01384319551409969</v>
+        <v>0.005445476416098694</v>
       </c>
       <c r="K127">
         <v>0.9</v>
       </c>
       <c r="L127">
-        <v>0.01245887596268972</v>
+        <v>0.004900928774488824</v>
       </c>
       <c r="M127">
-        <v>2.095997395467639E-06</v>
+        <v>1.487553133501057E-05</v>
       </c>
       <c r="N127">
-        <v>0.02470306117675993</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14">
-      <c r="A128" s="1">
-        <v>126</v>
-      </c>
-      <c r="B128">
-        <v>142</v>
-      </c>
-      <c r="C128" t="s">
-        <v>13</v>
-      </c>
-      <c r="D128">
-        <v>9</v>
-      </c>
-      <c r="E128">
-        <v>0.5</v>
-      </c>
-      <c r="F128">
-        <v>8</v>
-      </c>
-      <c r="G128" t="s">
-        <v>20</v>
-      </c>
-      <c r="H128">
-        <v>1.63405</v>
-      </c>
-      <c r="I128">
-        <v>3</v>
-      </c>
-      <c r="J128">
-        <v>0.01559448391533333</v>
-      </c>
-      <c r="K128">
-        <v>0.9</v>
-      </c>
-      <c r="L128">
-        <v>0.0140350355238</v>
-      </c>
-      <c r="M128">
-        <v>7.461842911717385E-05</v>
-      </c>
-      <c r="N128">
-        <v>0.05446609026091052</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="1">
-        <v>127</v>
-      </c>
-      <c r="B129">
-        <v>143</v>
-      </c>
-      <c r="C129" t="s">
-        <v>13</v>
-      </c>
-      <c r="D129">
-        <v>9</v>
-      </c>
-      <c r="E129">
-        <v>0.5</v>
-      </c>
-      <c r="F129">
-        <v>9</v>
-      </c>
-      <c r="G129" t="s">
-        <v>21</v>
-      </c>
-      <c r="H129">
-        <v>0.9910000000000001</v>
-      </c>
-      <c r="I129">
-        <v>3</v>
-      </c>
-      <c r="J129">
-        <v>0.009617738718466801</v>
-      </c>
-      <c r="K129">
-        <v>0.9</v>
-      </c>
-      <c r="L129">
-        <v>0.008655964846620122</v>
-      </c>
-      <c r="M129">
-        <v>1.487553133501057E-05</v>
-      </c>
-      <c r="N129">
-        <v>0.04556840259152337</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
-      <c r="A130" s="1">
-        <v>128</v>
-      </c>
-      <c r="B130">
-        <v>145</v>
-      </c>
-      <c r="C130" t="s">
-        <v>13</v>
-      </c>
-      <c r="D130">
-        <v>9</v>
-      </c>
-      <c r="E130">
-        <v>0.75</v>
-      </c>
-      <c r="F130">
-        <v>2</v>
-      </c>
-      <c r="G130" t="s">
-        <v>14</v>
-      </c>
-      <c r="H130">
-        <v>3.8138</v>
-      </c>
-      <c r="I130">
-        <v>3</v>
-      </c>
-      <c r="J130">
-        <v>0.003067180678491782</v>
-      </c>
-      <c r="K130">
-        <v>0.9</v>
-      </c>
-      <c r="L130">
-        <v>0.002760462610642604</v>
-      </c>
-      <c r="M130">
-        <v>2.711404135622713E-06</v>
-      </c>
-      <c r="N130">
-        <v>0.01171386266873453</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
-      <c r="A131" s="1">
-        <v>129</v>
-      </c>
-      <c r="B131">
-        <v>146</v>
-      </c>
-      <c r="C131" t="s">
-        <v>13</v>
-      </c>
-      <c r="D131">
-        <v>9</v>
-      </c>
-      <c r="E131">
-        <v>0.75</v>
-      </c>
-      <c r="F131">
-        <v>3</v>
-      </c>
-      <c r="G131" t="s">
-        <v>15</v>
-      </c>
-      <c r="H131">
-        <v>3.51005</v>
-      </c>
-      <c r="I131">
-        <v>3</v>
-      </c>
-      <c r="J131">
-        <v>0.001606521595267999</v>
-      </c>
-      <c r="K131">
-        <v>0.9</v>
-      </c>
-      <c r="L131">
-        <v>0.001445869435741199</v>
-      </c>
-      <c r="M131">
-        <v>3.596242624307284E-06</v>
-      </c>
-      <c r="N131">
-        <v>0.003669539519361159</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
-      <c r="A132" s="1">
-        <v>130</v>
-      </c>
-      <c r="B132">
-        <v>147</v>
-      </c>
-      <c r="C132" t="s">
-        <v>13</v>
-      </c>
-      <c r="D132">
-        <v>9</v>
-      </c>
-      <c r="E132">
-        <v>0.75</v>
-      </c>
-      <c r="F132">
-        <v>4</v>
-      </c>
-      <c r="G132" t="s">
-        <v>16</v>
-      </c>
-      <c r="H132">
-        <v>3.36435</v>
-      </c>
-      <c r="I132">
-        <v>3</v>
-      </c>
-      <c r="J132">
-        <v>0.003584750283159231</v>
-      </c>
-      <c r="K132">
-        <v>0.9</v>
-      </c>
-      <c r="L132">
-        <v>0.003226275254843308</v>
-      </c>
-      <c r="M132">
-        <v>1.552330757436661E-06</v>
-      </c>
-      <c r="N132">
-        <v>0.01428981431012217</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
-      <c r="A133" s="1">
-        <v>131</v>
-      </c>
-      <c r="B133">
-        <v>148</v>
-      </c>
-      <c r="C133" t="s">
-        <v>13</v>
-      </c>
-      <c r="D133">
-        <v>9</v>
-      </c>
-      <c r="E133">
-        <v>0.75</v>
-      </c>
-      <c r="F133">
-        <v>5</v>
-      </c>
-      <c r="G133" t="s">
-        <v>17</v>
-      </c>
-      <c r="H133">
-        <v>3.17225</v>
-      </c>
-      <c r="I133">
-        <v>3</v>
-      </c>
-      <c r="J133">
-        <v>0.002773894528417093</v>
-      </c>
-      <c r="K133">
-        <v>0.9</v>
-      </c>
-      <c r="L133">
-        <v>0.002496505075575384</v>
-      </c>
-      <c r="M133">
-        <v>2.451697247681077E-06</v>
-      </c>
-      <c r="N133">
-        <v>0.009294534648338321</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
-      <c r="A134" s="1">
-        <v>132</v>
-      </c>
-      <c r="B134">
-        <v>149</v>
-      </c>
-      <c r="C134" t="s">
-        <v>13</v>
-      </c>
-      <c r="D134">
-        <v>9</v>
-      </c>
-      <c r="E134">
-        <v>0.75</v>
-      </c>
-      <c r="F134">
-        <v>6</v>
-      </c>
-      <c r="G134" t="s">
-        <v>18</v>
-      </c>
-      <c r="H134">
-        <v>2.9293</v>
-      </c>
-      <c r="I134">
-        <v>3</v>
-      </c>
-      <c r="J134">
-        <v>0.008960291896637312</v>
-      </c>
-      <c r="K134">
-        <v>0.9</v>
-      </c>
-      <c r="L134">
-        <v>0.008064262706973581</v>
-      </c>
-      <c r="M134">
-        <v>1.671265343297028E-05</v>
-      </c>
-      <c r="N134">
-        <v>0.02567214532186431</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
-      <c r="A135" s="1">
-        <v>133</v>
-      </c>
-      <c r="B135">
-        <v>150</v>
-      </c>
-      <c r="C135" t="s">
-        <v>13</v>
-      </c>
-      <c r="D135">
-        <v>9</v>
-      </c>
-      <c r="E135">
-        <v>0.75</v>
-      </c>
-      <c r="F135">
-        <v>7</v>
-      </c>
-      <c r="G135" t="s">
-        <v>19</v>
-      </c>
-      <c r="H135">
-        <v>2.1089</v>
-      </c>
-      <c r="I135">
-        <v>3</v>
-      </c>
-      <c r="J135">
-        <v>0.01772331464231137</v>
-      </c>
-      <c r="K135">
-        <v>0.9</v>
-      </c>
-      <c r="L135">
-        <v>0.01595098317808023</v>
-      </c>
-      <c r="M135">
-        <v>2.095997395467639E-06</v>
-      </c>
-      <c r="N135">
-        <v>0.02470306117675993</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
-      <c r="A136" s="1">
-        <v>134</v>
-      </c>
-      <c r="B136">
-        <v>151</v>
-      </c>
-      <c r="C136" t="s">
-        <v>13</v>
-      </c>
-      <c r="D136">
-        <v>9</v>
-      </c>
-      <c r="E136">
-        <v>0.75</v>
-      </c>
-      <c r="F136">
-        <v>8</v>
-      </c>
-      <c r="G136" t="s">
-        <v>20</v>
-      </c>
-      <c r="H136">
-        <v>1.63405</v>
-      </c>
-      <c r="I136">
-        <v>3</v>
-      </c>
-      <c r="J136">
-        <v>0.01019938024017699</v>
-      </c>
-      <c r="K136">
-        <v>0.9</v>
-      </c>
-      <c r="L136">
-        <v>0.009179442216159291</v>
-      </c>
-      <c r="M136">
-        <v>7.461842911717385E-05</v>
-      </c>
-      <c r="N136">
-        <v>0.05446609026091052</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="B137">
-        <v>152</v>
-      </c>
-      <c r="C137" t="s">
-        <v>13</v>
-      </c>
-      <c r="D137">
-        <v>9</v>
-      </c>
-      <c r="E137">
-        <v>0.75</v>
-      </c>
-      <c r="F137">
-        <v>9</v>
-      </c>
-      <c r="G137" t="s">
-        <v>21</v>
-      </c>
-      <c r="H137">
-        <v>0.9910000000000001</v>
-      </c>
-      <c r="I137">
-        <v>3</v>
-      </c>
-      <c r="J137">
-        <v>0.007716928592132048</v>
-      </c>
-      <c r="K137">
-        <v>0.9</v>
-      </c>
-      <c r="L137">
-        <v>0.006945235732918843</v>
-      </c>
-      <c r="M137">
-        <v>1.487553133501057E-05</v>
-      </c>
-      <c r="N137">
-        <v>0.04556840259152337</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="B138">
-        <v>154</v>
-      </c>
-      <c r="C138" t="s">
-        <v>13</v>
-      </c>
-      <c r="D138">
-        <v>9</v>
-      </c>
-      <c r="E138">
-        <v>1</v>
-      </c>
-      <c r="F138">
-        <v>2</v>
-      </c>
-      <c r="G138" t="s">
-        <v>14</v>
-      </c>
-      <c r="H138">
-        <v>3.8138</v>
-      </c>
-      <c r="I138">
-        <v>3</v>
-      </c>
-      <c r="J138">
-        <v>0.004545735789017041</v>
-      </c>
-      <c r="K138">
-        <v>0.9</v>
-      </c>
-      <c r="L138">
-        <v>0.004091162210115337</v>
-      </c>
-      <c r="M138">
-        <v>2.711404135622713E-06</v>
-      </c>
-      <c r="N138">
-        <v>0.01171386266873453</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
-      <c r="A139" s="1">
-        <v>137</v>
-      </c>
-      <c r="B139">
-        <v>155</v>
-      </c>
-      <c r="C139" t="s">
-        <v>13</v>
-      </c>
-      <c r="D139">
-        <v>9</v>
-      </c>
-      <c r="E139">
-        <v>1</v>
-      </c>
-      <c r="F139">
-        <v>3</v>
-      </c>
-      <c r="G139" t="s">
-        <v>15</v>
-      </c>
-      <c r="H139">
-        <v>3.51005</v>
-      </c>
-      <c r="I139">
-        <v>3</v>
-      </c>
-      <c r="J139">
-        <v>0.00354864252258197</v>
-      </c>
-      <c r="K139">
-        <v>0.9</v>
-      </c>
-      <c r="L139">
-        <v>0.003193778270323773</v>
-      </c>
-      <c r="M139">
-        <v>3.596242624307284E-06</v>
-      </c>
-      <c r="N139">
-        <v>0.003669539519361159</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
-      <c r="A140" s="1">
-        <v>138</v>
-      </c>
-      <c r="B140">
-        <v>156</v>
-      </c>
-      <c r="C140" t="s">
-        <v>13</v>
-      </c>
-      <c r="D140">
-        <v>9</v>
-      </c>
-      <c r="E140">
-        <v>1</v>
-      </c>
-      <c r="F140">
-        <v>4</v>
-      </c>
-      <c r="G140" t="s">
-        <v>16</v>
-      </c>
-      <c r="H140">
-        <v>3.36435</v>
-      </c>
-      <c r="I140">
-        <v>3</v>
-      </c>
-      <c r="J140">
-        <v>0.004860876842006895</v>
-      </c>
-      <c r="K140">
-        <v>0.9</v>
-      </c>
-      <c r="L140">
-        <v>0.004374789157806205</v>
-      </c>
-      <c r="M140">
-        <v>1.552330757436661E-06</v>
-      </c>
-      <c r="N140">
-        <v>0.01428981431012217</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
-      <c r="B141">
-        <v>157</v>
-      </c>
-      <c r="C141" t="s">
-        <v>13</v>
-      </c>
-      <c r="D141">
-        <v>9</v>
-      </c>
-      <c r="E141">
-        <v>1</v>
-      </c>
-      <c r="F141">
-        <v>5</v>
-      </c>
-      <c r="G141" t="s">
-        <v>17</v>
-      </c>
-      <c r="H141">
-        <v>3.17225</v>
-      </c>
-      <c r="I141">
-        <v>3</v>
-      </c>
-      <c r="J141">
-        <v>0.003742492022102444</v>
-      </c>
-      <c r="K141">
-        <v>0.9</v>
-      </c>
-      <c r="L141">
-        <v>0.0033682428198922</v>
-      </c>
-      <c r="M141">
-        <v>2.451697247681077E-06</v>
-      </c>
-      <c r="N141">
-        <v>0.009294534648338321</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="B142">
-        <v>158</v>
-      </c>
-      <c r="C142" t="s">
-        <v>13</v>
-      </c>
-      <c r="D142">
-        <v>9</v>
-      </c>
-      <c r="E142">
-        <v>1</v>
-      </c>
-      <c r="F142">
-        <v>6</v>
-      </c>
-      <c r="G142" t="s">
-        <v>18</v>
-      </c>
-      <c r="H142">
-        <v>2.9293</v>
-      </c>
-      <c r="I142">
-        <v>3</v>
-      </c>
-      <c r="J142">
-        <v>0.008562539906460371</v>
-      </c>
-      <c r="K142">
-        <v>0.9</v>
-      </c>
-      <c r="L142">
-        <v>0.007706285915814334</v>
-      </c>
-      <c r="M142">
-        <v>1.671265343297028E-05</v>
-      </c>
-      <c r="N142">
-        <v>0.02567214532186431</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
-      <c r="A143" s="1">
-        <v>141</v>
-      </c>
-      <c r="B143">
-        <v>159</v>
-      </c>
-      <c r="C143" t="s">
-        <v>13</v>
-      </c>
-      <c r="D143">
-        <v>9</v>
-      </c>
-      <c r="E143">
-        <v>1</v>
-      </c>
-      <c r="F143">
-        <v>7</v>
-      </c>
-      <c r="G143" t="s">
-        <v>19</v>
-      </c>
-      <c r="H143">
-        <v>2.1089</v>
-      </c>
-      <c r="I143">
-        <v>3</v>
-      </c>
-      <c r="J143">
-        <v>0.02279175434045067</v>
-      </c>
-      <c r="K143">
-        <v>0.9</v>
-      </c>
-      <c r="L143">
-        <v>0.0205125789064056</v>
-      </c>
-      <c r="M143">
-        <v>2.095997395467639E-06</v>
-      </c>
-      <c r="N143">
-        <v>0.02470306117675993</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
-      <c r="A144" s="1">
-        <v>142</v>
-      </c>
-      <c r="B144">
-        <v>160</v>
-      </c>
-      <c r="C144" t="s">
-        <v>13</v>
-      </c>
-      <c r="D144">
-        <v>9</v>
-      </c>
-      <c r="E144">
-        <v>1</v>
-      </c>
-      <c r="F144">
-        <v>8</v>
-      </c>
-      <c r="G144" t="s">
-        <v>20</v>
-      </c>
-      <c r="H144">
-        <v>1.63405</v>
-      </c>
-      <c r="I144">
-        <v>3</v>
-      </c>
-      <c r="J144">
-        <v>0.006913815936606618</v>
-      </c>
-      <c r="K144">
-        <v>0.9</v>
-      </c>
-      <c r="L144">
-        <v>0.006222434342945956</v>
-      </c>
-      <c r="M144">
-        <v>7.461842911717385E-05</v>
-      </c>
-      <c r="N144">
-        <v>0.05446609026091052</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
-      <c r="A145" s="1">
-        <v>143</v>
-      </c>
-      <c r="B145">
-        <v>161</v>
-      </c>
-      <c r="C145" t="s">
-        <v>13</v>
-      </c>
-      <c r="D145">
-        <v>9</v>
-      </c>
-      <c r="E145">
-        <v>1</v>
-      </c>
-      <c r="F145">
-        <v>9</v>
-      </c>
-      <c r="G145" t="s">
-        <v>21</v>
-      </c>
-      <c r="H145">
-        <v>0.9910000000000001</v>
-      </c>
-      <c r="I145">
-        <v>3</v>
-      </c>
-      <c r="J145">
-        <v>0.006068885203650655</v>
-      </c>
-      <c r="K145">
-        <v>0.9</v>
-      </c>
-      <c r="L145">
-        <v>0.00546199668328559</v>
-      </c>
-      <c r="M145">
-        <v>1.487553133501057E-05</v>
-      </c>
-      <c r="N145">
-        <v>0.04556840259152337</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14">
-      <c r="A146" s="1">
-        <v>144</v>
-      </c>
-      <c r="B146">
-        <v>163</v>
-      </c>
-      <c r="C146" t="s">
-        <v>13</v>
-      </c>
-      <c r="D146">
-        <v>9</v>
-      </c>
-      <c r="E146">
-        <v>1.25</v>
-      </c>
-      <c r="F146">
-        <v>2</v>
-      </c>
-      <c r="G146" t="s">
-        <v>14</v>
-      </c>
-      <c r="H146">
-        <v>3.8138</v>
-      </c>
-      <c r="I146">
-        <v>3</v>
-      </c>
-      <c r="J146">
-        <v>0.003399916565789798</v>
-      </c>
-      <c r="K146">
-        <v>0.9</v>
-      </c>
-      <c r="L146">
-        <v>0.003059924909210818</v>
-      </c>
-      <c r="M146">
-        <v>2.711404135622713E-06</v>
-      </c>
-      <c r="N146">
-        <v>0.01171386266873453</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14">
-      <c r="A147" s="1">
-        <v>145</v>
-      </c>
-      <c r="B147">
-        <v>164</v>
-      </c>
-      <c r="C147" t="s">
-        <v>13</v>
-      </c>
-      <c r="D147">
-        <v>9</v>
-      </c>
-      <c r="E147">
-        <v>1.25</v>
-      </c>
-      <c r="F147">
-        <v>3</v>
-      </c>
-      <c r="G147" t="s">
-        <v>15</v>
-      </c>
-      <c r="H147">
-        <v>3.51005</v>
-      </c>
-      <c r="I147">
-        <v>3</v>
-      </c>
-      <c r="J147">
-        <v>0.001872753063788252</v>
-      </c>
-      <c r="K147">
-        <v>0.9</v>
-      </c>
-      <c r="L147">
-        <v>0.001685477757409427</v>
-      </c>
-      <c r="M147">
-        <v>3.596242624307284E-06</v>
-      </c>
-      <c r="N147">
-        <v>0.003669539519361159</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
-      <c r="B148">
-        <v>165</v>
-      </c>
-      <c r="C148" t="s">
-        <v>13</v>
-      </c>
-      <c r="D148">
-        <v>9</v>
-      </c>
-      <c r="E148">
-        <v>1.25</v>
-      </c>
-      <c r="F148">
-        <v>4</v>
-      </c>
-      <c r="G148" t="s">
-        <v>16</v>
-      </c>
-      <c r="H148">
-        <v>3.36435</v>
-      </c>
-      <c r="I148">
-        <v>3</v>
-      </c>
-      <c r="J148">
-        <v>0.003447784022408986</v>
-      </c>
-      <c r="K148">
-        <v>0.9</v>
-      </c>
-      <c r="L148">
-        <v>0.003103005620168087</v>
-      </c>
-      <c r="M148">
-        <v>1.552330757436661E-06</v>
-      </c>
-      <c r="N148">
-        <v>0.01428981431012217</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="B149">
-        <v>166</v>
-      </c>
-      <c r="C149" t="s">
-        <v>13</v>
-      </c>
-      <c r="D149">
-        <v>9</v>
-      </c>
-      <c r="E149">
-        <v>1.25</v>
-      </c>
-      <c r="F149">
-        <v>5</v>
-      </c>
-      <c r="G149" t="s">
-        <v>17</v>
-      </c>
-      <c r="H149">
-        <v>3.17225</v>
-      </c>
-      <c r="I149">
-        <v>3</v>
-      </c>
-      <c r="J149">
-        <v>0.00330880078650322</v>
-      </c>
-      <c r="K149">
-        <v>0.9</v>
-      </c>
-      <c r="L149">
-        <v>0.002977920707852898</v>
-      </c>
-      <c r="M149">
-        <v>2.451697247681077E-06</v>
-      </c>
-      <c r="N149">
-        <v>0.009294534648338321</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
-      <c r="B150">
-        <v>167</v>
-      </c>
-      <c r="C150" t="s">
-        <v>13</v>
-      </c>
-      <c r="D150">
-        <v>9</v>
-      </c>
-      <c r="E150">
-        <v>1.25</v>
-      </c>
-      <c r="F150">
-        <v>6</v>
-      </c>
-      <c r="G150" t="s">
-        <v>18</v>
-      </c>
-      <c r="H150">
-        <v>2.9293</v>
-      </c>
-      <c r="I150">
-        <v>3</v>
-      </c>
-      <c r="J150">
-        <v>0.008415868950971109</v>
-      </c>
-      <c r="K150">
-        <v>0.9</v>
-      </c>
-      <c r="L150">
-        <v>0.007574282055873998</v>
-      </c>
-      <c r="M150">
-        <v>1.671265343297028E-05</v>
-      </c>
-      <c r="N150">
-        <v>0.02567214532186431</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
-      <c r="B151">
-        <v>168</v>
-      </c>
-      <c r="C151" t="s">
-        <v>13</v>
-      </c>
-      <c r="D151">
-        <v>9</v>
-      </c>
-      <c r="E151">
-        <v>1.25</v>
-      </c>
-      <c r="F151">
-        <v>7</v>
-      </c>
-      <c r="G151" t="s">
-        <v>19</v>
-      </c>
-      <c r="H151">
-        <v>2.1089</v>
-      </c>
-      <c r="I151">
-        <v>3</v>
-      </c>
-      <c r="J151">
-        <v>0.02761748872636778</v>
-      </c>
-      <c r="K151">
-        <v>0.9</v>
-      </c>
-      <c r="L151">
-        <v>0.024855739853731</v>
-      </c>
-      <c r="M151">
-        <v>2.095997395467639E-06</v>
-      </c>
-      <c r="N151">
-        <v>0.02470306117675993</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="B152">
-        <v>169</v>
-      </c>
-      <c r="C152" t="s">
-        <v>13</v>
-      </c>
-      <c r="D152">
-        <v>9</v>
-      </c>
-      <c r="E152">
-        <v>1.25</v>
-      </c>
-      <c r="F152">
-        <v>8</v>
-      </c>
-      <c r="G152" t="s">
-        <v>20</v>
-      </c>
-      <c r="H152">
-        <v>1.63405</v>
-      </c>
-      <c r="I152">
-        <v>3</v>
-      </c>
-      <c r="J152">
-        <v>0.006313293997658055</v>
-      </c>
-      <c r="K152">
-        <v>0.9</v>
-      </c>
-      <c r="L152">
-        <v>0.00568196459789225</v>
-      </c>
-      <c r="M152">
-        <v>7.461842911717385E-05</v>
-      </c>
-      <c r="N152">
-        <v>0.05446609026091052</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
-      <c r="B153">
-        <v>170</v>
-      </c>
-      <c r="C153" t="s">
-        <v>13</v>
-      </c>
-      <c r="D153">
-        <v>9</v>
-      </c>
-      <c r="E153">
-        <v>1.25</v>
-      </c>
-      <c r="F153">
-        <v>9</v>
-      </c>
-      <c r="G153" t="s">
-        <v>21</v>
-      </c>
-      <c r="H153">
-        <v>0.9910000000000001</v>
-      </c>
-      <c r="I153">
-        <v>3</v>
-      </c>
-      <c r="J153">
-        <v>0.004658763443214258</v>
-      </c>
-      <c r="K153">
-        <v>0.9</v>
-      </c>
-      <c r="L153">
-        <v>0.004192887098892832</v>
-      </c>
-      <c r="M153">
-        <v>1.487553133501057E-05</v>
-      </c>
-      <c r="N153">
-        <v>0.04556840259152337</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14">
-      <c r="A154" s="1">
-        <v>152</v>
-      </c>
-      <c r="B154">
-        <v>172</v>
-      </c>
-      <c r="C154" t="s">
-        <v>13</v>
-      </c>
-      <c r="D154">
-        <v>9</v>
-      </c>
-      <c r="E154">
-        <v>1.5</v>
-      </c>
-      <c r="F154">
-        <v>2</v>
-      </c>
-      <c r="G154" t="s">
-        <v>14</v>
-      </c>
-      <c r="H154">
-        <v>3.8138</v>
-      </c>
-      <c r="I154">
-        <v>3</v>
-      </c>
-      <c r="J154">
-        <v>0.00391147582389336</v>
-      </c>
-      <c r="K154">
-        <v>0.9</v>
-      </c>
-      <c r="L154">
-        <v>0.003520328241504024</v>
-      </c>
-      <c r="M154">
-        <v>2.711404135622713E-06</v>
-      </c>
-      <c r="N154">
-        <v>0.01171386266873453</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14">
-      <c r="A155" s="1">
-        <v>153</v>
-      </c>
-      <c r="B155">
-        <v>173</v>
-      </c>
-      <c r="C155" t="s">
-        <v>13</v>
-      </c>
-      <c r="D155">
-        <v>9</v>
-      </c>
-      <c r="E155">
-        <v>1.5</v>
-      </c>
-      <c r="F155">
-        <v>3</v>
-      </c>
-      <c r="G155" t="s">
-        <v>15</v>
-      </c>
-      <c r="H155">
-        <v>3.51005</v>
-      </c>
-      <c r="I155">
-        <v>3</v>
-      </c>
-      <c r="J155">
-        <v>0.002861778211912433</v>
-      </c>
-      <c r="K155">
-        <v>0.9</v>
-      </c>
-      <c r="L155">
-        <v>0.00257560039072119</v>
-      </c>
-      <c r="M155">
-        <v>3.596242624307284E-06</v>
-      </c>
-      <c r="N155">
-        <v>0.003669539519361159</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14">
-      <c r="A156" s="1">
-        <v>154</v>
-      </c>
-      <c r="B156">
-        <v>174</v>
-      </c>
-      <c r="C156" t="s">
-        <v>13</v>
-      </c>
-      <c r="D156">
-        <v>9</v>
-      </c>
-      <c r="E156">
-        <v>1.5</v>
-      </c>
-      <c r="F156">
-        <v>4</v>
-      </c>
-      <c r="G156" t="s">
-        <v>16</v>
-      </c>
-      <c r="H156">
-        <v>3.36435</v>
-      </c>
-      <c r="I156">
-        <v>3</v>
-      </c>
-      <c r="J156">
-        <v>0.003650785814988594</v>
-      </c>
-      <c r="K156">
-        <v>0.9</v>
-      </c>
-      <c r="L156">
-        <v>0.003285707233489734</v>
-      </c>
-      <c r="M156">
-        <v>1.552330757436661E-06</v>
-      </c>
-      <c r="N156">
-        <v>0.01428981431012217</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="B157">
-        <v>175</v>
-      </c>
-      <c r="C157" t="s">
-        <v>13</v>
-      </c>
-      <c r="D157">
-        <v>9</v>
-      </c>
-      <c r="E157">
-        <v>1.5</v>
-      </c>
-      <c r="F157">
-        <v>5</v>
-      </c>
-      <c r="G157" t="s">
-        <v>17</v>
-      </c>
-      <c r="H157">
-        <v>3.17225</v>
-      </c>
-      <c r="I157">
-        <v>3</v>
-      </c>
-      <c r="J157">
-        <v>0.003834165127188757</v>
-      </c>
-      <c r="K157">
-        <v>0.9</v>
-      </c>
-      <c r="L157">
-        <v>0.003450748614469882</v>
-      </c>
-      <c r="M157">
-        <v>2.451697247681077E-06</v>
-      </c>
-      <c r="N157">
-        <v>0.009294534648338321</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="B158">
-        <v>176</v>
-      </c>
-      <c r="C158" t="s">
-        <v>13</v>
-      </c>
-      <c r="D158">
-        <v>9</v>
-      </c>
-      <c r="E158">
-        <v>1.5</v>
-      </c>
-      <c r="F158">
-        <v>6</v>
-      </c>
-      <c r="G158" t="s">
-        <v>18</v>
-      </c>
-      <c r="H158">
-        <v>2.9293</v>
-      </c>
-      <c r="I158">
-        <v>3</v>
-      </c>
-      <c r="J158">
-        <v>0.01048042413842902</v>
-      </c>
-      <c r="K158">
-        <v>0.9</v>
-      </c>
-      <c r="L158">
-        <v>0.009432381724586113</v>
-      </c>
-      <c r="M158">
-        <v>1.671265343297028E-05</v>
-      </c>
-      <c r="N158">
-        <v>0.02567214532186431</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="B159">
-        <v>177</v>
-      </c>
-      <c r="C159" t="s">
-        <v>13</v>
-      </c>
-      <c r="D159">
-        <v>9</v>
-      </c>
-      <c r="E159">
-        <v>1.5</v>
-      </c>
-      <c r="F159">
-        <v>7</v>
-      </c>
-      <c r="G159" t="s">
-        <v>19</v>
-      </c>
-      <c r="H159">
-        <v>2.1089</v>
-      </c>
-      <c r="I159">
-        <v>3</v>
-      </c>
-      <c r="J159">
-        <v>0.03162185081205404</v>
-      </c>
-      <c r="K159">
-        <v>0.9</v>
-      </c>
-      <c r="L159">
-        <v>0.02845966573084864</v>
-      </c>
-      <c r="M159">
-        <v>2.095997395467639E-06</v>
-      </c>
-      <c r="N159">
-        <v>0.02470306117675993</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
-      <c r="B160">
-        <v>178</v>
-      </c>
-      <c r="C160" t="s">
-        <v>13</v>
-      </c>
-      <c r="D160">
-        <v>9</v>
-      </c>
-      <c r="E160">
-        <v>1.5</v>
-      </c>
-      <c r="F160">
-        <v>8</v>
-      </c>
-      <c r="G160" t="s">
-        <v>20</v>
-      </c>
-      <c r="H160">
-        <v>1.63405</v>
-      </c>
-      <c r="I160">
-        <v>3</v>
-      </c>
-      <c r="J160">
-        <v>0.01422796554029248</v>
-      </c>
-      <c r="K160">
-        <v>0.9</v>
-      </c>
-      <c r="L160">
-        <v>0.01280516898626323</v>
-      </c>
-      <c r="M160">
-        <v>7.461842911717385E-05</v>
-      </c>
-      <c r="N160">
-        <v>0.05446609026091052</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="B161">
-        <v>179</v>
-      </c>
-      <c r="C161" t="s">
-        <v>13</v>
-      </c>
-      <c r="D161">
-        <v>9</v>
-      </c>
-      <c r="E161">
-        <v>1.5</v>
-      </c>
-      <c r="F161">
-        <v>9</v>
-      </c>
-      <c r="G161" t="s">
-        <v>21</v>
-      </c>
-      <c r="H161">
-        <v>0.9910000000000001</v>
-      </c>
-      <c r="I161">
-        <v>3</v>
-      </c>
-      <c r="J161">
-        <v>0.007587125948213423</v>
-      </c>
-      <c r="K161">
-        <v>0.9</v>
-      </c>
-      <c r="L161">
-        <v>0.006828413353392081</v>
-      </c>
-      <c r="M161">
-        <v>1.487553133501057E-05</v>
-      </c>
-      <c r="N161">
-        <v>0.04556840259152337</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
-      <c r="B162">
-        <v>181</v>
-      </c>
-      <c r="C162" t="s">
-        <v>13</v>
-      </c>
-      <c r="D162">
-        <v>9</v>
-      </c>
-      <c r="E162">
-        <v>1.75</v>
-      </c>
-      <c r="F162">
-        <v>2</v>
-      </c>
-      <c r="G162" t="s">
-        <v>14</v>
-      </c>
-      <c r="H162">
-        <v>3.8138</v>
-      </c>
-      <c r="I162">
-        <v>3</v>
-      </c>
-      <c r="J162">
-        <v>0.005527985538532273</v>
-      </c>
-      <c r="K162">
-        <v>0.9</v>
-      </c>
-      <c r="L162">
-        <v>0.004975186984679045</v>
-      </c>
-      <c r="M162">
-        <v>2.711404135622713E-06</v>
-      </c>
-      <c r="N162">
-        <v>0.01171386266873453</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14">
-      <c r="A163" s="1">
-        <v>161</v>
-      </c>
-      <c r="B163">
-        <v>182</v>
-      </c>
-      <c r="C163" t="s">
-        <v>13</v>
-      </c>
-      <c r="D163">
-        <v>9</v>
-      </c>
-      <c r="E163">
-        <v>1.75</v>
-      </c>
-      <c r="F163">
-        <v>3</v>
-      </c>
-      <c r="G163" t="s">
-        <v>15</v>
-      </c>
-      <c r="H163">
-        <v>3.51005</v>
-      </c>
-      <c r="I163">
-        <v>3</v>
-      </c>
-      <c r="J163">
-        <v>0.00410484532221776</v>
-      </c>
-      <c r="K163">
-        <v>0.9</v>
-      </c>
-      <c r="L163">
-        <v>0.003694360789995985</v>
-      </c>
-      <c r="M163">
-        <v>3.596242624307284E-06</v>
-      </c>
-      <c r="N163">
-        <v>0.003669539519361159</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14">
-      <c r="A164" s="1">
-        <v>162</v>
-      </c>
-      <c r="B164">
-        <v>183</v>
-      </c>
-      <c r="C164" t="s">
-        <v>13</v>
-      </c>
-      <c r="D164">
-        <v>9</v>
-      </c>
-      <c r="E164">
-        <v>1.75</v>
-      </c>
-      <c r="F164">
-        <v>4</v>
-      </c>
-      <c r="G164" t="s">
-        <v>16</v>
-      </c>
-      <c r="H164">
-        <v>3.36435</v>
-      </c>
-      <c r="I164">
-        <v>3</v>
-      </c>
-      <c r="J164">
-        <v>0.004833560909133633</v>
-      </c>
-      <c r="K164">
-        <v>0.9</v>
-      </c>
-      <c r="L164">
-        <v>0.004350204818220269</v>
-      </c>
-      <c r="M164">
-        <v>1.552330757436661E-06</v>
-      </c>
-      <c r="N164">
-        <v>0.01428981431012217</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14">
-      <c r="A165" s="1">
-        <v>163</v>
-      </c>
-      <c r="B165">
-        <v>184</v>
-      </c>
-      <c r="C165" t="s">
-        <v>13</v>
-      </c>
-      <c r="D165">
-        <v>9</v>
-      </c>
-      <c r="E165">
-        <v>1.75</v>
-      </c>
-      <c r="F165">
-        <v>5</v>
-      </c>
-      <c r="G165" t="s">
-        <v>17</v>
-      </c>
-      <c r="H165">
-        <v>3.17225</v>
-      </c>
-      <c r="I165">
-        <v>3</v>
-      </c>
-      <c r="J165">
-        <v>0.004565336142558453</v>
-      </c>
-      <c r="K165">
-        <v>0.9</v>
-      </c>
-      <c r="L165">
-        <v>0.004108802528302608</v>
-      </c>
-      <c r="M165">
-        <v>2.451697247681077E-06</v>
-      </c>
-      <c r="N165">
-        <v>0.009294534648338321</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
-      <c r="B166">
-        <v>185</v>
-      </c>
-      <c r="C166" t="s">
-        <v>13</v>
-      </c>
-      <c r="D166">
-        <v>9</v>
-      </c>
-      <c r="E166">
-        <v>1.75</v>
-      </c>
-      <c r="F166">
-        <v>6</v>
-      </c>
-      <c r="G166" t="s">
-        <v>18</v>
-      </c>
-      <c r="H166">
-        <v>2.9293</v>
-      </c>
-      <c r="I166">
-        <v>3</v>
-      </c>
-      <c r="J166">
-        <v>0.009731128560144332</v>
-      </c>
-      <c r="K166">
-        <v>0.9</v>
-      </c>
-      <c r="L166">
-        <v>0.008758015704129899</v>
-      </c>
-      <c r="M166">
-        <v>1.671265343297028E-05</v>
-      </c>
-      <c r="N166">
-        <v>0.02567214532186431</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14">
-      <c r="A167" s="1">
-        <v>165</v>
-      </c>
-      <c r="B167">
-        <v>186</v>
-      </c>
-      <c r="C167" t="s">
-        <v>13</v>
-      </c>
-      <c r="D167">
-        <v>9</v>
-      </c>
-      <c r="E167">
-        <v>1.75</v>
-      </c>
-      <c r="F167">
-        <v>7</v>
-      </c>
-      <c r="G167" t="s">
-        <v>19</v>
-      </c>
-      <c r="H167">
-        <v>2.1089</v>
-      </c>
-      <c r="I167">
-        <v>3</v>
-      </c>
-      <c r="J167">
-        <v>0.03588350893557521</v>
-      </c>
-      <c r="K167">
-        <v>0.9</v>
-      </c>
-      <c r="L167">
-        <v>0.03229515804201769</v>
-      </c>
-      <c r="M167">
-        <v>2.095997395467639E-06</v>
-      </c>
-      <c r="N167">
-        <v>0.02470306117675993</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
-      <c r="B168">
-        <v>187</v>
-      </c>
-      <c r="C168" t="s">
-        <v>13</v>
-      </c>
-      <c r="D168">
-        <v>9</v>
-      </c>
-      <c r="E168">
-        <v>1.75</v>
-      </c>
-      <c r="F168">
-        <v>8</v>
-      </c>
-      <c r="G168" t="s">
-        <v>20</v>
-      </c>
-      <c r="H168">
-        <v>1.63405</v>
-      </c>
-      <c r="I168">
-        <v>3</v>
-      </c>
-      <c r="J168">
-        <v>0.007304226327011662</v>
-      </c>
-      <c r="K168">
-        <v>0.9</v>
-      </c>
-      <c r="L168">
-        <v>0.006573803694310496</v>
-      </c>
-      <c r="M168">
-        <v>7.461842911717385E-05</v>
-      </c>
-      <c r="N168">
-        <v>0.05446609026091052</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="B169">
-        <v>188</v>
-      </c>
-      <c r="C169" t="s">
-        <v>13</v>
-      </c>
-      <c r="D169">
-        <v>9</v>
-      </c>
-      <c r="E169">
-        <v>1.75</v>
-      </c>
-      <c r="F169">
-        <v>9</v>
-      </c>
-      <c r="G169" t="s">
-        <v>21</v>
-      </c>
-      <c r="H169">
-        <v>0.9910000000000001</v>
-      </c>
-      <c r="I169">
-        <v>3</v>
-      </c>
-      <c r="J169">
-        <v>0.005445476416098694</v>
-      </c>
-      <c r="K169">
-        <v>0.9</v>
-      </c>
-      <c r="L169">
-        <v>0.004900928774488824</v>
-      </c>
-      <c r="M169">
-        <v>1.487553133501057E-05</v>
-      </c>
-      <c r="N169">
         <v>0.04556840259152337</v>
       </c>
     </row>
